--- a/school_excel_data/1学期期末/1学期期末_英語.xlsx
+++ b/school_excel_data/1学期期末/1学期期末_英語.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasuyasu\Desktop\school\refactor\1学期期末\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasuyasu\Desktop\school_excel_data\1学期期末\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -6316,7 +6316,7 @@
   <dimension ref="A1:J1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A1002"/>
+      <selection activeCell="G2" sqref="G2:G1002"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6376,7 +6376,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H2">
         <v>35</v>
@@ -6408,7 +6408,7 @@
         <v>16</v>
       </c>
       <c r="G3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H3">
         <v>33</v>
@@ -6440,7 +6440,7 @@
         <v>19</v>
       </c>
       <c r="G4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H4">
         <v>76</v>
@@ -6472,7 +6472,7 @@
         <v>22</v>
       </c>
       <c r="G5">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H5">
         <v>69</v>
@@ -6504,7 +6504,7 @@
         <v>25</v>
       </c>
       <c r="G6">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H6">
         <v>94</v>
@@ -6536,7 +6536,7 @@
         <v>11</v>
       </c>
       <c r="G7">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H7">
         <v>84</v>
@@ -6568,7 +6568,7 @@
         <v>16</v>
       </c>
       <c r="G8">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H8">
         <v>86</v>
@@ -6600,7 +6600,7 @@
         <v>19</v>
       </c>
       <c r="G9">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H9">
         <v>70</v>
@@ -6632,7 +6632,7 @@
         <v>22</v>
       </c>
       <c r="G10">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H10">
         <v>79</v>
@@ -6664,7 +6664,7 @@
         <v>25</v>
       </c>
       <c r="G11">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H11">
         <v>77</v>
@@ -6696,7 +6696,7 @@
         <v>11</v>
       </c>
       <c r="G12">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H12">
         <v>47</v>
@@ -6728,7 +6728,7 @@
         <v>16</v>
       </c>
       <c r="G13">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H13">
         <v>55</v>
@@ -6760,7 +6760,7 @@
         <v>19</v>
       </c>
       <c r="G14">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H14">
         <v>71</v>
@@ -6792,7 +6792,7 @@
         <v>22</v>
       </c>
       <c r="G15">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H15">
         <v>65</v>
@@ -6824,7 +6824,7 @@
         <v>25</v>
       </c>
       <c r="G16">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H16">
         <v>56</v>
@@ -6856,7 +6856,7 @@
         <v>11</v>
       </c>
       <c r="G17">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H17">
         <v>56</v>
@@ -6888,7 +6888,7 @@
         <v>16</v>
       </c>
       <c r="G18">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H18">
         <v>45</v>
@@ -6920,7 +6920,7 @@
         <v>19</v>
       </c>
       <c r="G19">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H19">
         <v>74</v>
@@ -6952,7 +6952,7 @@
         <v>22</v>
       </c>
       <c r="G20">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H20">
         <v>69</v>
@@ -6984,7 +6984,7 @@
         <v>25</v>
       </c>
       <c r="G21">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H21">
         <v>47</v>
@@ -7016,7 +7016,7 @@
         <v>11</v>
       </c>
       <c r="G22">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H22">
         <v>59</v>
@@ -7048,7 +7048,7 @@
         <v>16</v>
       </c>
       <c r="G23">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H23">
         <v>82</v>
@@ -7080,7 +7080,7 @@
         <v>19</v>
       </c>
       <c r="G24">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H24">
         <v>29</v>
@@ -7112,7 +7112,7 @@
         <v>22</v>
       </c>
       <c r="G25">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H25">
         <v>62</v>
@@ -7144,7 +7144,7 @@
         <v>25</v>
       </c>
       <c r="G26">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H26">
         <v>51</v>
@@ -7176,7 +7176,7 @@
         <v>11</v>
       </c>
       <c r="G27">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H27">
         <v>50</v>
@@ -7208,7 +7208,7 @@
         <v>16</v>
       </c>
       <c r="G28">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H28">
         <v>48</v>
@@ -7240,7 +7240,7 @@
         <v>19</v>
       </c>
       <c r="G29">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H29">
         <v>63</v>
@@ -7272,7 +7272,7 @@
         <v>22</v>
       </c>
       <c r="G30">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H30">
         <v>54</v>
@@ -7304,7 +7304,7 @@
         <v>25</v>
       </c>
       <c r="G31">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H31">
         <v>65</v>
@@ -7336,7 +7336,7 @@
         <v>11</v>
       </c>
       <c r="G32">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H32">
         <v>42</v>
@@ -7368,7 +7368,7 @@
         <v>16</v>
       </c>
       <c r="G33">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H33">
         <v>41</v>
@@ -7400,7 +7400,7 @@
         <v>19</v>
       </c>
       <c r="G34">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H34">
         <v>56</v>
@@ -7432,7 +7432,7 @@
         <v>22</v>
       </c>
       <c r="G35">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H35">
         <v>65</v>
@@ -7464,7 +7464,7 @@
         <v>25</v>
       </c>
       <c r="G36">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H36">
         <v>47</v>
@@ -7496,7 +7496,7 @@
         <v>11</v>
       </c>
       <c r="G37">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H37">
         <v>62</v>
@@ -7528,7 +7528,7 @@
         <v>16</v>
       </c>
       <c r="G38">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H38">
         <v>36</v>
@@ -7560,7 +7560,7 @@
         <v>19</v>
       </c>
       <c r="G39">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H39">
         <v>18</v>
@@ -7592,7 +7592,7 @@
         <v>22</v>
       </c>
       <c r="G40">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H40">
         <v>23</v>
@@ -7624,7 +7624,7 @@
         <v>25</v>
       </c>
       <c r="G41">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H41">
         <v>74</v>
@@ -7656,7 +7656,7 @@
         <v>11</v>
       </c>
       <c r="G42">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H42">
         <v>47</v>
@@ -7688,7 +7688,7 @@
         <v>16</v>
       </c>
       <c r="G43">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H43">
         <v>38</v>
@@ -7720,7 +7720,7 @@
         <v>19</v>
       </c>
       <c r="G44">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H44">
         <v>49</v>
@@ -7752,7 +7752,7 @@
         <v>22</v>
       </c>
       <c r="G45">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H45">
         <v>41</v>
@@ -7784,7 +7784,7 @@
         <v>25</v>
       </c>
       <c r="G46">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H46">
         <v>7</v>
@@ -7816,7 +7816,7 @@
         <v>11</v>
       </c>
       <c r="G47">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H47">
         <v>44</v>
@@ -7848,7 +7848,7 @@
         <v>16</v>
       </c>
       <c r="G48">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H48">
         <v>100</v>
@@ -7880,7 +7880,7 @@
         <v>19</v>
       </c>
       <c r="G49">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H49">
         <v>73</v>
@@ -7912,7 +7912,7 @@
         <v>22</v>
       </c>
       <c r="G50">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H50">
         <v>66</v>
@@ -7944,7 +7944,7 @@
         <v>25</v>
       </c>
       <c r="G51">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H51">
         <v>72</v>
@@ -7976,7 +7976,7 @@
         <v>11</v>
       </c>
       <c r="G52">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H52">
         <v>70</v>
@@ -8008,7 +8008,7 @@
         <v>16</v>
       </c>
       <c r="G53">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H53">
         <v>64</v>
@@ -8040,7 +8040,7 @@
         <v>19</v>
       </c>
       <c r="G54">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H54">
         <v>79</v>
@@ -8072,7 +8072,7 @@
         <v>22</v>
       </c>
       <c r="G55">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H55">
         <v>65</v>
@@ -8104,7 +8104,7 @@
         <v>25</v>
       </c>
       <c r="G56">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H56">
         <v>52</v>
@@ -8136,7 +8136,7 @@
         <v>11</v>
       </c>
       <c r="G57">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H57">
         <v>42</v>
@@ -8168,7 +8168,7 @@
         <v>16</v>
       </c>
       <c r="G58">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H58">
         <v>60</v>
@@ -8200,7 +8200,7 @@
         <v>19</v>
       </c>
       <c r="G59">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H59">
         <v>40</v>
@@ -8232,7 +8232,7 @@
         <v>22</v>
       </c>
       <c r="G60">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H60">
         <v>37</v>
@@ -8264,7 +8264,7 @@
         <v>25</v>
       </c>
       <c r="G61">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H61">
         <v>84</v>
@@ -8296,7 +8296,7 @@
         <v>11</v>
       </c>
       <c r="G62">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H62">
         <v>67</v>
@@ -8328,7 +8328,7 @@
         <v>16</v>
       </c>
       <c r="G63">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H63">
         <v>51</v>
@@ -8360,7 +8360,7 @@
         <v>19</v>
       </c>
       <c r="G64">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H64">
         <v>49</v>
@@ -8392,7 +8392,7 @@
         <v>22</v>
       </c>
       <c r="G65">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H65">
         <v>44</v>
@@ -8424,7 +8424,7 @@
         <v>25</v>
       </c>
       <c r="G66">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H66">
         <v>66</v>
@@ -8456,7 +8456,7 @@
         <v>11</v>
       </c>
       <c r="G67">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H67">
         <v>58</v>
@@ -8488,7 +8488,7 @@
         <v>16</v>
       </c>
       <c r="G68">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H68">
         <v>60</v>
@@ -8520,7 +8520,7 @@
         <v>19</v>
       </c>
       <c r="G69">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H69">
         <v>66</v>
@@ -8552,7 +8552,7 @@
         <v>22</v>
       </c>
       <c r="G70">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H70">
         <v>54</v>
@@ -8584,7 +8584,7 @@
         <v>25</v>
       </c>
       <c r="G71">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H71">
         <v>94</v>
@@ -8616,7 +8616,7 @@
         <v>11</v>
       </c>
       <c r="G72">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H72">
         <v>71</v>
@@ -8648,7 +8648,7 @@
         <v>16</v>
       </c>
       <c r="G73">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H73">
         <v>25</v>
@@ -8680,7 +8680,7 @@
         <v>19</v>
       </c>
       <c r="G74">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H74">
         <v>32</v>
@@ -8712,7 +8712,7 @@
         <v>22</v>
       </c>
       <c r="G75">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H75">
         <v>63</v>
@@ -8744,7 +8744,7 @@
         <v>25</v>
       </c>
       <c r="G76">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H76">
         <v>65</v>
@@ -8776,7 +8776,7 @@
         <v>11</v>
       </c>
       <c r="G77">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H77">
         <v>54</v>
@@ -8808,7 +8808,7 @@
         <v>16</v>
       </c>
       <c r="G78">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H78">
         <v>82</v>
@@ -8840,7 +8840,7 @@
         <v>19</v>
       </c>
       <c r="G79">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H79">
         <v>40</v>
@@ -8872,7 +8872,7 @@
         <v>22</v>
       </c>
       <c r="G80">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H80">
         <v>63</v>
@@ -8904,7 +8904,7 @@
         <v>25</v>
       </c>
       <c r="G81">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H81">
         <v>34</v>
@@ -8936,7 +8936,7 @@
         <v>11</v>
       </c>
       <c r="G82">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H82">
         <v>72</v>
@@ -8968,7 +8968,7 @@
         <v>16</v>
       </c>
       <c r="G83">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H83">
         <v>18</v>
@@ -9000,7 +9000,7 @@
         <v>19</v>
       </c>
       <c r="G84">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H84">
         <v>62</v>
@@ -9032,7 +9032,7 @@
         <v>22</v>
       </c>
       <c r="G85">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H85">
         <v>66</v>
@@ -9064,7 +9064,7 @@
         <v>25</v>
       </c>
       <c r="G86">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H86">
         <v>60</v>
@@ -9096,7 +9096,7 @@
         <v>11</v>
       </c>
       <c r="G87">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H87">
         <v>48</v>
@@ -9128,7 +9128,7 @@
         <v>16</v>
       </c>
       <c r="G88">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H88">
         <v>53</v>
@@ -9160,7 +9160,7 @@
         <v>19</v>
       </c>
       <c r="G89">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H89">
         <v>98</v>
@@ -9192,7 +9192,7 @@
         <v>22</v>
       </c>
       <c r="G90">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H90">
         <v>24</v>
@@ -9224,7 +9224,7 @@
         <v>25</v>
       </c>
       <c r="G91">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H91">
         <v>62</v>
@@ -9256,7 +9256,7 @@
         <v>11</v>
       </c>
       <c r="G92">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H92">
         <v>56</v>
@@ -9288,7 +9288,7 @@
         <v>16</v>
       </c>
       <c r="G93">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H93">
         <v>62</v>
@@ -9320,7 +9320,7 @@
         <v>19</v>
       </c>
       <c r="G94">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H94">
         <v>84</v>
@@ -9352,7 +9352,7 @@
         <v>22</v>
       </c>
       <c r="G95">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H95">
         <v>41</v>
@@ -9384,7 +9384,7 @@
         <v>25</v>
       </c>
       <c r="G96">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H96">
         <v>39</v>
@@ -9416,7 +9416,7 @@
         <v>11</v>
       </c>
       <c r="G97">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H97">
         <v>54</v>
@@ -9448,7 +9448,7 @@
         <v>16</v>
       </c>
       <c r="G98">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H98">
         <v>35</v>
@@ -9480,7 +9480,7 @@
         <v>19</v>
       </c>
       <c r="G99">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H99">
         <v>82</v>
@@ -9512,7 +9512,7 @@
         <v>22</v>
       </c>
       <c r="G100">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H100">
         <v>75</v>
@@ -9544,7 +9544,7 @@
         <v>25</v>
       </c>
       <c r="G101">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H101">
         <v>57</v>
@@ -9576,7 +9576,7 @@
         <v>11</v>
       </c>
       <c r="G102">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H102">
         <v>75</v>
@@ -9608,7 +9608,7 @@
         <v>16</v>
       </c>
       <c r="G103">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H103">
         <v>49</v>
@@ -9640,7 +9640,7 @@
         <v>19</v>
       </c>
       <c r="G104">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H104">
         <v>33</v>
@@ -9672,7 +9672,7 @@
         <v>22</v>
       </c>
       <c r="G105">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H105">
         <v>84</v>
@@ -9704,7 +9704,7 @@
         <v>25</v>
       </c>
       <c r="G106">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H106">
         <v>63</v>
@@ -9736,7 +9736,7 @@
         <v>11</v>
       </c>
       <c r="G107">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H107">
         <v>47</v>
@@ -9768,7 +9768,7 @@
         <v>16</v>
       </c>
       <c r="G108">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H108">
         <v>57</v>
@@ -9800,7 +9800,7 @@
         <v>19</v>
       </c>
       <c r="G109">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H109">
         <v>92</v>
@@ -9832,7 +9832,7 @@
         <v>22</v>
       </c>
       <c r="G110">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H110">
         <v>14</v>
@@ -9864,7 +9864,7 @@
         <v>25</v>
       </c>
       <c r="G111">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H111">
         <v>53</v>
@@ -9896,7 +9896,7 @@
         <v>11</v>
       </c>
       <c r="G112">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H112">
         <v>31</v>
@@ -9928,7 +9928,7 @@
         <v>16</v>
       </c>
       <c r="G113">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H113">
         <v>44</v>
@@ -9960,7 +9960,7 @@
         <v>19</v>
       </c>
       <c r="G114">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H114">
         <v>80</v>
@@ -9992,7 +9992,7 @@
         <v>22</v>
       </c>
       <c r="G115">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H115">
         <v>65</v>
@@ -10024,7 +10024,7 @@
         <v>25</v>
       </c>
       <c r="G116">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H116">
         <v>52</v>
@@ -10056,7 +10056,7 @@
         <v>11</v>
       </c>
       <c r="G117">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H117">
         <v>72</v>
@@ -10088,7 +10088,7 @@
         <v>16</v>
       </c>
       <c r="G118">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H118">
         <v>91</v>
@@ -10120,7 +10120,7 @@
         <v>19</v>
       </c>
       <c r="G119">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H119">
         <v>55</v>
@@ -10152,7 +10152,7 @@
         <v>22</v>
       </c>
       <c r="G120">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H120">
         <v>69</v>
@@ -10184,7 +10184,7 @@
         <v>25</v>
       </c>
       <c r="G121">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H121">
         <v>42</v>
@@ -10216,7 +10216,7 @@
         <v>11</v>
       </c>
       <c r="G122">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H122">
         <v>55</v>
@@ -10248,7 +10248,7 @@
         <v>16</v>
       </c>
       <c r="G123">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H123">
         <v>74</v>
@@ -10280,7 +10280,7 @@
         <v>19</v>
       </c>
       <c r="G124">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H124">
         <v>51</v>
@@ -10312,7 +10312,7 @@
         <v>22</v>
       </c>
       <c r="G125">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H125">
         <v>65</v>
@@ -10344,7 +10344,7 @@
         <v>25</v>
       </c>
       <c r="G126">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H126">
         <v>45</v>
@@ -10376,7 +10376,7 @@
         <v>11</v>
       </c>
       <c r="G127">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H127">
         <v>22</v>
@@ -10408,7 +10408,7 @@
         <v>16</v>
       </c>
       <c r="G128">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H128">
         <v>34</v>
@@ -10440,7 +10440,7 @@
         <v>19</v>
       </c>
       <c r="G129">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H129">
         <v>88</v>
@@ -10472,7 +10472,7 @@
         <v>22</v>
       </c>
       <c r="G130">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H130">
         <v>52</v>
@@ -10504,7 +10504,7 @@
         <v>25</v>
       </c>
       <c r="G131">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H131">
         <v>72</v>
@@ -10536,7 +10536,7 @@
         <v>11</v>
       </c>
       <c r="G132">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H132">
         <v>78</v>
@@ -10568,7 +10568,7 @@
         <v>16</v>
       </c>
       <c r="G133">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H133">
         <v>78</v>
@@ -10600,7 +10600,7 @@
         <v>19</v>
       </c>
       <c r="G134">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H134">
         <v>50</v>
@@ -10632,7 +10632,7 @@
         <v>22</v>
       </c>
       <c r="G135">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H135">
         <v>38</v>
@@ -10664,7 +10664,7 @@
         <v>25</v>
       </c>
       <c r="G136">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H136">
         <v>92</v>
@@ -10696,7 +10696,7 @@
         <v>11</v>
       </c>
       <c r="G137">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H137">
         <v>26</v>
@@ -10728,7 +10728,7 @@
         <v>16</v>
       </c>
       <c r="G138">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H138">
         <v>100</v>
@@ -10760,7 +10760,7 @@
         <v>19</v>
       </c>
       <c r="G139">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H139">
         <v>49</v>
@@ -10792,7 +10792,7 @@
         <v>22</v>
       </c>
       <c r="G140">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H140">
         <v>67</v>
@@ -10824,7 +10824,7 @@
         <v>25</v>
       </c>
       <c r="G141">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H141">
         <v>43</v>
@@ -10856,7 +10856,7 @@
         <v>11</v>
       </c>
       <c r="G142">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H142">
         <v>92</v>
@@ -10888,7 +10888,7 @@
         <v>16</v>
       </c>
       <c r="G143">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H143">
         <v>46</v>
@@ -10920,7 +10920,7 @@
         <v>19</v>
       </c>
       <c r="G144">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H144">
         <v>66</v>
@@ -10952,7 +10952,7 @@
         <v>22</v>
       </c>
       <c r="G145">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H145">
         <v>29</v>
@@ -10984,7 +10984,7 @@
         <v>25</v>
       </c>
       <c r="G146">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H146">
         <v>67</v>
@@ -11016,7 +11016,7 @@
         <v>11</v>
       </c>
       <c r="G147">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H147">
         <v>44</v>
@@ -11048,7 +11048,7 @@
         <v>16</v>
       </c>
       <c r="G148">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H148">
         <v>13</v>
@@ -11080,7 +11080,7 @@
         <v>19</v>
       </c>
       <c r="G149">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H149">
         <v>17</v>
@@ -11112,7 +11112,7 @@
         <v>22</v>
       </c>
       <c r="G150">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H150">
         <v>85</v>
@@ -11144,7 +11144,7 @@
         <v>25</v>
       </c>
       <c r="G151">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H151">
         <v>66</v>
@@ -11176,7 +11176,7 @@
         <v>11</v>
       </c>
       <c r="G152">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H152">
         <v>46</v>
@@ -11208,7 +11208,7 @@
         <v>16</v>
       </c>
       <c r="G153">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H153">
         <v>31</v>
@@ -11240,7 +11240,7 @@
         <v>19</v>
       </c>
       <c r="G154">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H154">
         <v>65</v>
@@ -11272,7 +11272,7 @@
         <v>22</v>
       </c>
       <c r="G155">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H155">
         <v>4</v>
@@ -11304,7 +11304,7 @@
         <v>25</v>
       </c>
       <c r="G156">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H156">
         <v>38</v>
@@ -11336,7 +11336,7 @@
         <v>11</v>
       </c>
       <c r="G157">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H157">
         <v>70</v>
@@ -11368,7 +11368,7 @@
         <v>16</v>
       </c>
       <c r="G158">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H158">
         <v>33</v>
@@ -11400,7 +11400,7 @@
         <v>19</v>
       </c>
       <c r="G159">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H159">
         <v>62</v>
@@ -11432,7 +11432,7 @@
         <v>22</v>
       </c>
       <c r="G160">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H160">
         <v>72</v>
@@ -11464,7 +11464,7 @@
         <v>25</v>
       </c>
       <c r="G161">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H161">
         <v>75</v>
@@ -11496,7 +11496,7 @@
         <v>11</v>
       </c>
       <c r="G162">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H162">
         <v>72</v>
@@ -11528,7 +11528,7 @@
         <v>16</v>
       </c>
       <c r="G163">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H163">
         <v>43</v>
@@ -11560,7 +11560,7 @@
         <v>19</v>
       </c>
       <c r="G164">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H164">
         <v>31</v>
@@ -11592,7 +11592,7 @@
         <v>22</v>
       </c>
       <c r="G165">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H165">
         <v>64</v>
@@ -11624,7 +11624,7 @@
         <v>25</v>
       </c>
       <c r="G166">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H166">
         <v>73</v>
@@ -11656,7 +11656,7 @@
         <v>11</v>
       </c>
       <c r="G167">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H167">
         <v>72</v>
@@ -11688,7 +11688,7 @@
         <v>16</v>
       </c>
       <c r="G168">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H168">
         <v>98</v>
@@ -11720,7 +11720,7 @@
         <v>19</v>
       </c>
       <c r="G169">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H169">
         <v>55</v>
@@ -11752,7 +11752,7 @@
         <v>22</v>
       </c>
       <c r="G170">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H170">
         <v>80</v>
@@ -11784,7 +11784,7 @@
         <v>25</v>
       </c>
       <c r="G171">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H171">
         <v>24</v>
@@ -11816,7 +11816,7 @@
         <v>11</v>
       </c>
       <c r="G172">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H172">
         <v>66</v>
@@ -11848,7 +11848,7 @@
         <v>16</v>
       </c>
       <c r="G173">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H173">
         <v>43</v>
@@ -11880,7 +11880,7 @@
         <v>19</v>
       </c>
       <c r="G174">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H174">
         <v>73</v>
@@ -11912,7 +11912,7 @@
         <v>22</v>
       </c>
       <c r="G175">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H175">
         <v>74</v>
@@ -11944,7 +11944,7 @@
         <v>25</v>
       </c>
       <c r="G176">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H176">
         <v>76</v>
@@ -11976,7 +11976,7 @@
         <v>11</v>
       </c>
       <c r="G177">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H177">
         <v>69</v>
@@ -12008,7 +12008,7 @@
         <v>16</v>
       </c>
       <c r="G178">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H178">
         <v>58</v>
@@ -12040,7 +12040,7 @@
         <v>19</v>
       </c>
       <c r="G179">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H179">
         <v>100</v>
@@ -12072,7 +12072,7 @@
         <v>22</v>
       </c>
       <c r="G180">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H180">
         <v>58</v>
@@ -12104,7 +12104,7 @@
         <v>25</v>
       </c>
       <c r="G181">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H181">
         <v>77</v>
@@ -12136,7 +12136,7 @@
         <v>11</v>
       </c>
       <c r="G182">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H182">
         <v>75</v>
@@ -12168,7 +12168,7 @@
         <v>16</v>
       </c>
       <c r="G183">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H183">
         <v>81</v>
@@ -12200,7 +12200,7 @@
         <v>19</v>
       </c>
       <c r="G184">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H184">
         <v>71</v>
@@ -12232,7 +12232,7 @@
         <v>22</v>
       </c>
       <c r="G185">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H185">
         <v>94</v>
@@ -12264,7 +12264,7 @@
         <v>25</v>
       </c>
       <c r="G186">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H186">
         <v>55</v>
@@ -12296,7 +12296,7 @@
         <v>11</v>
       </c>
       <c r="G187">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H187">
         <v>76</v>
@@ -12328,7 +12328,7 @@
         <v>16</v>
       </c>
       <c r="G188">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H188">
         <v>66</v>
@@ -12360,7 +12360,7 @@
         <v>19</v>
       </c>
       <c r="G189">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H189">
         <v>79</v>
@@ -12392,7 +12392,7 @@
         <v>22</v>
       </c>
       <c r="G190">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H190">
         <v>73</v>
@@ -12424,7 +12424,7 @@
         <v>25</v>
       </c>
       <c r="G191">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H191">
         <v>64</v>
@@ -12456,7 +12456,7 @@
         <v>11</v>
       </c>
       <c r="G192">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H192">
         <v>71</v>
@@ -12488,7 +12488,7 @@
         <v>16</v>
       </c>
       <c r="G193">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H193">
         <v>56</v>
@@ -12520,7 +12520,7 @@
         <v>19</v>
       </c>
       <c r="G194">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H194">
         <v>72</v>
@@ -12552,7 +12552,7 @@
         <v>22</v>
       </c>
       <c r="G195">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H195">
         <v>59</v>
@@ -12584,7 +12584,7 @@
         <v>25</v>
       </c>
       <c r="G196">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H196">
         <v>76</v>
@@ -12616,7 +12616,7 @@
         <v>11</v>
       </c>
       <c r="G197">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H197">
         <v>39</v>
@@ -12648,7 +12648,7 @@
         <v>16</v>
       </c>
       <c r="G198">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H198">
         <v>47</v>
@@ -12680,7 +12680,7 @@
         <v>19</v>
       </c>
       <c r="G199">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H199">
         <v>53</v>
@@ -12712,7 +12712,7 @@
         <v>22</v>
       </c>
       <c r="G200">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H200">
         <v>80</v>
@@ -12744,7 +12744,7 @@
         <v>25</v>
       </c>
       <c r="G201">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H201">
         <v>57</v>
@@ -12776,7 +12776,7 @@
         <v>11</v>
       </c>
       <c r="G202">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H202">
         <v>47</v>
@@ -12808,7 +12808,7 @@
         <v>16</v>
       </c>
       <c r="G203">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H203">
         <v>40</v>
@@ -12840,7 +12840,7 @@
         <v>19</v>
       </c>
       <c r="G204">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H204">
         <v>68</v>
@@ -12872,7 +12872,7 @@
         <v>22</v>
       </c>
       <c r="G205">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H205">
         <v>54</v>
@@ -12904,7 +12904,7 @@
         <v>25</v>
       </c>
       <c r="G206">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H206">
         <v>84</v>
@@ -12936,7 +12936,7 @@
         <v>11</v>
       </c>
       <c r="G207">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H207">
         <v>72</v>
@@ -12968,7 +12968,7 @@
         <v>16</v>
       </c>
       <c r="G208">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H208">
         <v>40</v>
@@ -13000,7 +13000,7 @@
         <v>19</v>
       </c>
       <c r="G209">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H209">
         <v>50</v>
@@ -13032,7 +13032,7 @@
         <v>22</v>
       </c>
       <c r="G210">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H210">
         <v>55</v>
@@ -13064,7 +13064,7 @@
         <v>25</v>
       </c>
       <c r="G211">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H211">
         <v>62</v>
@@ -13096,7 +13096,7 @@
         <v>11</v>
       </c>
       <c r="G212">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H212">
         <v>82</v>
@@ -13128,7 +13128,7 @@
         <v>16</v>
       </c>
       <c r="G213">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H213">
         <v>65</v>
@@ -13160,7 +13160,7 @@
         <v>19</v>
       </c>
       <c r="G214">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H214">
         <v>92</v>
@@ -13192,7 +13192,7 @@
         <v>22</v>
       </c>
       <c r="G215">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H215">
         <v>69</v>
@@ -13224,7 +13224,7 @@
         <v>25</v>
       </c>
       <c r="G216">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H216">
         <v>81</v>
@@ -13256,7 +13256,7 @@
         <v>11</v>
       </c>
       <c r="G217">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H217">
         <v>34</v>
@@ -13288,7 +13288,7 @@
         <v>16</v>
       </c>
       <c r="G218">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H218">
         <v>45</v>
@@ -13320,7 +13320,7 @@
         <v>19</v>
       </c>
       <c r="G219">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H219">
         <v>43</v>
@@ -13352,7 +13352,7 @@
         <v>22</v>
       </c>
       <c r="G220">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H220">
         <v>73</v>
@@ -13384,7 +13384,7 @@
         <v>25</v>
       </c>
       <c r="G221">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H221">
         <v>59</v>
@@ -13416,7 +13416,7 @@
         <v>11</v>
       </c>
       <c r="G222">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H222">
         <v>87</v>
@@ -13448,7 +13448,7 @@
         <v>16</v>
       </c>
       <c r="G223">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H223">
         <v>100</v>
@@ -13480,7 +13480,7 @@
         <v>19</v>
       </c>
       <c r="G224">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H224">
         <v>51</v>
@@ -13512,7 +13512,7 @@
         <v>22</v>
       </c>
       <c r="G225">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H225">
         <v>98</v>
@@ -13544,7 +13544,7 @@
         <v>25</v>
       </c>
       <c r="G226">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H226">
         <v>68</v>
@@ -13576,7 +13576,7 @@
         <v>11</v>
       </c>
       <c r="G227">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H227">
         <v>25</v>
@@ -13608,7 +13608,7 @@
         <v>16</v>
       </c>
       <c r="G228">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H228">
         <v>50</v>
@@ -13640,7 +13640,7 @@
         <v>19</v>
       </c>
       <c r="G229">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H229">
         <v>76</v>
@@ -13672,7 +13672,7 @@
         <v>22</v>
       </c>
       <c r="G230">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H230">
         <v>47</v>
@@ -13704,7 +13704,7 @@
         <v>25</v>
       </c>
       <c r="G231">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H231">
         <v>14</v>
@@ -13736,7 +13736,7 @@
         <v>11</v>
       </c>
       <c r="G232">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H232">
         <v>27</v>
@@ -13768,7 +13768,7 @@
         <v>16</v>
       </c>
       <c r="G233">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H233">
         <v>43</v>
@@ -13800,7 +13800,7 @@
         <v>19</v>
       </c>
       <c r="G234">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H234">
         <v>58</v>
@@ -13832,7 +13832,7 @@
         <v>22</v>
       </c>
       <c r="G235">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H235">
         <v>86</v>
@@ -13864,7 +13864,7 @@
         <v>25</v>
       </c>
       <c r="G236">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H236">
         <v>40</v>
@@ -13896,7 +13896,7 @@
         <v>11</v>
       </c>
       <c r="G237">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H237">
         <v>62</v>
@@ -13928,7 +13928,7 @@
         <v>16</v>
       </c>
       <c r="G238">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H238">
         <v>82</v>
@@ -13960,7 +13960,7 @@
         <v>19</v>
       </c>
       <c r="G239">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H239">
         <v>77</v>
@@ -13992,7 +13992,7 @@
         <v>22</v>
       </c>
       <c r="G240">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H240">
         <v>38</v>
@@ -14024,7 +14024,7 @@
         <v>25</v>
       </c>
       <c r="G241">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H241">
         <v>51</v>
@@ -14056,7 +14056,7 @@
         <v>11</v>
       </c>
       <c r="G242">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H242">
         <v>65</v>
@@ -14088,7 +14088,7 @@
         <v>16</v>
       </c>
       <c r="G243">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H243">
         <v>60</v>
@@ -14120,7 +14120,7 @@
         <v>19</v>
       </c>
       <c r="G244">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H244">
         <v>58</v>
@@ -14152,7 +14152,7 @@
         <v>22</v>
       </c>
       <c r="G245">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H245">
         <v>63</v>
@@ -14184,7 +14184,7 @@
         <v>25</v>
       </c>
       <c r="G246">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H246">
         <v>100</v>
@@ -14216,7 +14216,7 @@
         <v>11</v>
       </c>
       <c r="G247">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H247">
         <v>81</v>
@@ -14248,7 +14248,7 @@
         <v>16</v>
       </c>
       <c r="G248">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H248">
         <v>51</v>
@@ -14280,7 +14280,7 @@
         <v>19</v>
       </c>
       <c r="G249">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H249">
         <v>46</v>
@@ -14312,7 +14312,7 @@
         <v>22</v>
       </c>
       <c r="G250">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H250">
         <v>39</v>
@@ -14344,7 +14344,7 @@
         <v>25</v>
       </c>
       <c r="G251">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H251">
         <v>59</v>
@@ -14376,7 +14376,7 @@
         <v>11</v>
       </c>
       <c r="G252">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H252">
         <v>61</v>
@@ -14408,7 +14408,7 @@
         <v>16</v>
       </c>
       <c r="G253">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H253">
         <v>62</v>
@@ -14440,7 +14440,7 @@
         <v>19</v>
       </c>
       <c r="G254">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H254">
         <v>100</v>
@@ -14472,7 +14472,7 @@
         <v>22</v>
       </c>
       <c r="G255">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H255">
         <v>58</v>
@@ -14504,7 +14504,7 @@
         <v>25</v>
       </c>
       <c r="G256">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H256">
         <v>93</v>
@@ -14536,7 +14536,7 @@
         <v>11</v>
       </c>
       <c r="G257">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H257">
         <v>55</v>
@@ -14568,7 +14568,7 @@
         <v>16</v>
       </c>
       <c r="G258">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H258">
         <v>79</v>
@@ -14600,7 +14600,7 @@
         <v>19</v>
       </c>
       <c r="G259">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H259">
         <v>85</v>
@@ -14632,7 +14632,7 @@
         <v>22</v>
       </c>
       <c r="G260">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H260">
         <v>67</v>
@@ -14664,7 +14664,7 @@
         <v>25</v>
       </c>
       <c r="G261">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H261">
         <v>25</v>
@@ -14696,7 +14696,7 @@
         <v>11</v>
       </c>
       <c r="G262">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H262">
         <v>56</v>
@@ -14728,7 +14728,7 @@
         <v>16</v>
       </c>
       <c r="G263">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H263">
         <v>49</v>
@@ -14760,7 +14760,7 @@
         <v>19</v>
       </c>
       <c r="G264">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H264">
         <v>59</v>
@@ -14792,7 +14792,7 @@
         <v>22</v>
       </c>
       <c r="G265">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H265">
         <v>34</v>
@@ -14824,7 +14824,7 @@
         <v>25</v>
       </c>
       <c r="G266">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H266">
         <v>48</v>
@@ -14856,7 +14856,7 @@
         <v>11</v>
       </c>
       <c r="G267">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H267">
         <v>33</v>
@@ -14888,7 +14888,7 @@
         <v>16</v>
       </c>
       <c r="G268">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H268">
         <v>100</v>
@@ -14920,7 +14920,7 @@
         <v>19</v>
       </c>
       <c r="G269">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H269">
         <v>59</v>
@@ -14952,7 +14952,7 @@
         <v>22</v>
       </c>
       <c r="G270">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H270">
         <v>66</v>
@@ -14984,7 +14984,7 @@
         <v>25</v>
       </c>
       <c r="G271">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H271">
         <v>71</v>
@@ -15016,7 +15016,7 @@
         <v>11</v>
       </c>
       <c r="G272">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H272">
         <v>76</v>
@@ -15048,7 +15048,7 @@
         <v>16</v>
       </c>
       <c r="G273">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H273">
         <v>33</v>
@@ -15080,7 +15080,7 @@
         <v>19</v>
       </c>
       <c r="G274">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H274">
         <v>44</v>
@@ -15112,7 +15112,7 @@
         <v>22</v>
       </c>
       <c r="G275">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H275">
         <v>33</v>
@@ -15144,7 +15144,7 @@
         <v>25</v>
       </c>
       <c r="G276">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H276">
         <v>99</v>
@@ -15176,7 +15176,7 @@
         <v>11</v>
       </c>
       <c r="G277">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H277">
         <v>51</v>
@@ -15208,7 +15208,7 @@
         <v>16</v>
       </c>
       <c r="G278">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H278">
         <v>56</v>
@@ -15240,7 +15240,7 @@
         <v>19</v>
       </c>
       <c r="G279">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H279">
         <v>100</v>
@@ -15272,7 +15272,7 @@
         <v>22</v>
       </c>
       <c r="G280">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H280">
         <v>47</v>
@@ -15304,7 +15304,7 @@
         <v>25</v>
       </c>
       <c r="G281">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H281">
         <v>69</v>
@@ -15336,7 +15336,7 @@
         <v>11</v>
       </c>
       <c r="G282">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H282">
         <v>87</v>
@@ -15368,7 +15368,7 @@
         <v>16</v>
       </c>
       <c r="G283">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H283">
         <v>53</v>
@@ -15400,7 +15400,7 @@
         <v>19</v>
       </c>
       <c r="G284">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H284">
         <v>36</v>
@@ -15432,7 +15432,7 @@
         <v>22</v>
       </c>
       <c r="G285">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H285">
         <v>78</v>
@@ -15464,7 +15464,7 @@
         <v>25</v>
       </c>
       <c r="G286">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H286">
         <v>44</v>
@@ -15496,7 +15496,7 @@
         <v>11</v>
       </c>
       <c r="G287">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H287">
         <v>64</v>
@@ -15528,7 +15528,7 @@
         <v>16</v>
       </c>
       <c r="G288">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H288">
         <v>76</v>
@@ -15560,7 +15560,7 @@
         <v>19</v>
       </c>
       <c r="G289">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H289">
         <v>89</v>
@@ -15592,7 +15592,7 @@
         <v>22</v>
       </c>
       <c r="G290">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H290">
         <v>54</v>
@@ -15624,7 +15624,7 @@
         <v>25</v>
       </c>
       <c r="G291">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H291">
         <v>71</v>
@@ -15656,7 +15656,7 @@
         <v>11</v>
       </c>
       <c r="G292">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H292">
         <v>54</v>
@@ -15688,7 +15688,7 @@
         <v>16</v>
       </c>
       <c r="G293">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H293">
         <v>100</v>
@@ -15720,7 +15720,7 @@
         <v>19</v>
       </c>
       <c r="G294">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H294">
         <v>77</v>
@@ -15752,7 +15752,7 @@
         <v>22</v>
       </c>
       <c r="G295">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H295">
         <v>88</v>
@@ -15784,7 +15784,7 @@
         <v>25</v>
       </c>
       <c r="G296">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H296">
         <v>93</v>
@@ -15816,7 +15816,7 @@
         <v>11</v>
       </c>
       <c r="G297">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H297">
         <v>65</v>
@@ -15848,7 +15848,7 @@
         <v>16</v>
       </c>
       <c r="G298">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H298">
         <v>84</v>
@@ -15880,7 +15880,7 @@
         <v>19</v>
       </c>
       <c r="G299">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H299">
         <v>47</v>
@@ -15912,7 +15912,7 @@
         <v>22</v>
       </c>
       <c r="G300">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H300">
         <v>65</v>
@@ -15944,7 +15944,7 @@
         <v>25</v>
       </c>
       <c r="G301">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H301">
         <v>59</v>
@@ -15976,7 +15976,7 @@
         <v>11</v>
       </c>
       <c r="G302">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H302">
         <v>22</v>
@@ -16008,7 +16008,7 @@
         <v>16</v>
       </c>
       <c r="G303">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H303">
         <v>19</v>
@@ -16040,7 +16040,7 @@
         <v>19</v>
       </c>
       <c r="G304">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H304">
         <v>75</v>
@@ -16072,7 +16072,7 @@
         <v>22</v>
       </c>
       <c r="G305">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H305">
         <v>89</v>
@@ -16104,7 +16104,7 @@
         <v>25</v>
       </c>
       <c r="G306">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H306">
         <v>60</v>
@@ -16136,7 +16136,7 @@
         <v>11</v>
       </c>
       <c r="G307">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H307">
         <v>67</v>
@@ -16168,7 +16168,7 @@
         <v>16</v>
       </c>
       <c r="G308">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H308">
         <v>39</v>
@@ -16200,7 +16200,7 @@
         <v>19</v>
       </c>
       <c r="G309">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H309">
         <v>55</v>
@@ -16232,7 +16232,7 @@
         <v>22</v>
       </c>
       <c r="G310">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H310">
         <v>94</v>
@@ -16264,7 +16264,7 @@
         <v>25</v>
       </c>
       <c r="G311">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H311">
         <v>86</v>
@@ -16296,7 +16296,7 @@
         <v>11</v>
       </c>
       <c r="G312">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H312">
         <v>49</v>
@@ -16328,7 +16328,7 @@
         <v>16</v>
       </c>
       <c r="G313">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H313">
         <v>19</v>
@@ -16360,7 +16360,7 @@
         <v>19</v>
       </c>
       <c r="G314">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H314">
         <v>54</v>
@@ -16392,7 +16392,7 @@
         <v>22</v>
       </c>
       <c r="G315">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H315">
         <v>60</v>
@@ -16424,7 +16424,7 @@
         <v>25</v>
       </c>
       <c r="G316">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H316">
         <v>60</v>
@@ -16456,7 +16456,7 @@
         <v>11</v>
       </c>
       <c r="G317">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H317">
         <v>76</v>
@@ -16488,7 +16488,7 @@
         <v>16</v>
       </c>
       <c r="G318">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H318">
         <v>31</v>
@@ -16520,7 +16520,7 @@
         <v>19</v>
       </c>
       <c r="G319">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H319">
         <v>69</v>
@@ -16552,7 +16552,7 @@
         <v>22</v>
       </c>
       <c r="G320">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H320">
         <v>91</v>
@@ -16584,7 +16584,7 @@
         <v>25</v>
       </c>
       <c r="G321">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H321">
         <v>45</v>
@@ -16616,7 +16616,7 @@
         <v>11</v>
       </c>
       <c r="G322">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H322">
         <v>42</v>
@@ -16648,7 +16648,7 @@
         <v>16</v>
       </c>
       <c r="G323">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H323">
         <v>8</v>
@@ -16680,7 +16680,7 @@
         <v>19</v>
       </c>
       <c r="G324">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H324">
         <v>63</v>
@@ -16712,7 +16712,7 @@
         <v>22</v>
       </c>
       <c r="G325">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H325">
         <v>43</v>
@@ -16744,7 +16744,7 @@
         <v>25</v>
       </c>
       <c r="G326">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H326">
         <v>35</v>
@@ -16776,7 +16776,7 @@
         <v>11</v>
       </c>
       <c r="G327">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H327">
         <v>65</v>
@@ -16808,7 +16808,7 @@
         <v>16</v>
       </c>
       <c r="G328">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H328">
         <v>71</v>
@@ -16840,7 +16840,7 @@
         <v>19</v>
       </c>
       <c r="G329">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H329">
         <v>50</v>
@@ -16872,7 +16872,7 @@
         <v>22</v>
       </c>
       <c r="G330">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H330">
         <v>48</v>
@@ -16904,7 +16904,7 @@
         <v>25</v>
       </c>
       <c r="G331">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H331">
         <v>32</v>
@@ -16936,7 +16936,7 @@
         <v>11</v>
       </c>
       <c r="G332">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H332">
         <v>32</v>
@@ -16968,7 +16968,7 @@
         <v>16</v>
       </c>
       <c r="G333">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H333">
         <v>74</v>
@@ -17000,7 +17000,7 @@
         <v>19</v>
       </c>
       <c r="G334">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H334">
         <v>73</v>
@@ -17032,7 +17032,7 @@
         <v>22</v>
       </c>
       <c r="G335">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H335">
         <v>76</v>
@@ -17064,7 +17064,7 @@
         <v>25</v>
       </c>
       <c r="G336">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H336">
         <v>59</v>
@@ -17096,7 +17096,7 @@
         <v>11</v>
       </c>
       <c r="G337">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H337">
         <v>51</v>
@@ -17128,7 +17128,7 @@
         <v>16</v>
       </c>
       <c r="G338">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H338">
         <v>75</v>
@@ -17160,7 +17160,7 @@
         <v>19</v>
       </c>
       <c r="G339">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H339">
         <v>46</v>
@@ -17192,7 +17192,7 @@
         <v>22</v>
       </c>
       <c r="G340">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H340">
         <v>97</v>
@@ -17224,7 +17224,7 @@
         <v>25</v>
       </c>
       <c r="G341">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H341">
         <v>46</v>
@@ -17256,7 +17256,7 @@
         <v>11</v>
       </c>
       <c r="G342">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H342">
         <v>47</v>
@@ -17288,7 +17288,7 @@
         <v>16</v>
       </c>
       <c r="G343">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H343">
         <v>65</v>
@@ -17320,7 +17320,7 @@
         <v>19</v>
       </c>
       <c r="G344">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H344">
         <v>42</v>
@@ -17352,7 +17352,7 @@
         <v>22</v>
       </c>
       <c r="G345">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H345">
         <v>61</v>
@@ -17384,7 +17384,7 @@
         <v>25</v>
       </c>
       <c r="G346">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H346">
         <v>20</v>
@@ -17416,7 +17416,7 @@
         <v>11</v>
       </c>
       <c r="G347">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H347">
         <v>89</v>
@@ -17448,7 +17448,7 @@
         <v>16</v>
       </c>
       <c r="G348">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H348">
         <v>41</v>
@@ -17480,7 +17480,7 @@
         <v>19</v>
       </c>
       <c r="G349">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H349">
         <v>48</v>
@@ -17512,7 +17512,7 @@
         <v>22</v>
       </c>
       <c r="G350">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H350">
         <v>88</v>
@@ -17544,7 +17544,7 @@
         <v>25</v>
       </c>
       <c r="G351">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H351">
         <v>65</v>
@@ -17576,7 +17576,7 @@
         <v>11</v>
       </c>
       <c r="G352">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H352">
         <v>50</v>
@@ -17608,7 +17608,7 @@
         <v>16</v>
       </c>
       <c r="G353">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H353">
         <v>58</v>
@@ -17640,7 +17640,7 @@
         <v>19</v>
       </c>
       <c r="G354">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H354">
         <v>94</v>
@@ -17672,7 +17672,7 @@
         <v>22</v>
       </c>
       <c r="G355">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H355">
         <v>43</v>
@@ -17704,7 +17704,7 @@
         <v>25</v>
       </c>
       <c r="G356">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H356">
         <v>61</v>
@@ -17736,7 +17736,7 @@
         <v>11</v>
       </c>
       <c r="G357">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H357">
         <v>58</v>
@@ -17768,7 +17768,7 @@
         <v>16</v>
       </c>
       <c r="G358">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H358">
         <v>72</v>
@@ -17800,7 +17800,7 @@
         <v>19</v>
       </c>
       <c r="G359">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H359">
         <v>48</v>
@@ -17832,7 +17832,7 @@
         <v>22</v>
       </c>
       <c r="G360">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H360">
         <v>37</v>
@@ -17864,7 +17864,7 @@
         <v>25</v>
       </c>
       <c r="G361">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H361">
         <v>73</v>
@@ -17896,7 +17896,7 @@
         <v>11</v>
       </c>
       <c r="G362">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H362">
         <v>57</v>
@@ -17928,7 +17928,7 @@
         <v>16</v>
       </c>
       <c r="G363">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H363">
         <v>31</v>
@@ -17960,7 +17960,7 @@
         <v>19</v>
       </c>
       <c r="G364">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H364">
         <v>90</v>
@@ -17992,7 +17992,7 @@
         <v>22</v>
       </c>
       <c r="G365">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H365">
         <v>60</v>
@@ -18024,7 +18024,7 @@
         <v>25</v>
       </c>
       <c r="G366">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H366">
         <v>49</v>
@@ -18056,7 +18056,7 @@
         <v>11</v>
       </c>
       <c r="G367">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H367">
         <v>50</v>
@@ -18088,7 +18088,7 @@
         <v>16</v>
       </c>
       <c r="G368">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H368">
         <v>36</v>
@@ -18120,7 +18120,7 @@
         <v>19</v>
       </c>
       <c r="G369">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H369">
         <v>44</v>
@@ -18152,7 +18152,7 @@
         <v>22</v>
       </c>
       <c r="G370">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H370">
         <v>68</v>
@@ -18184,7 +18184,7 @@
         <v>25</v>
       </c>
       <c r="G371">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H371">
         <v>80</v>
@@ -18216,7 +18216,7 @@
         <v>11</v>
       </c>
       <c r="G372">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H372">
         <v>10</v>
@@ -18248,7 +18248,7 @@
         <v>16</v>
       </c>
       <c r="G373">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H373">
         <v>0</v>
@@ -18280,7 +18280,7 @@
         <v>19</v>
       </c>
       <c r="G374">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H374">
         <v>55</v>
@@ -18312,7 +18312,7 @@
         <v>22</v>
       </c>
       <c r="G375">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H375">
         <v>88</v>
@@ -18344,7 +18344,7 @@
         <v>25</v>
       </c>
       <c r="G376">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H376">
         <v>46</v>
@@ -18376,7 +18376,7 @@
         <v>11</v>
       </c>
       <c r="G377">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H377">
         <v>28</v>
@@ -18408,7 +18408,7 @@
         <v>16</v>
       </c>
       <c r="G378">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H378">
         <v>46</v>
@@ -18440,7 +18440,7 @@
         <v>19</v>
       </c>
       <c r="G379">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H379">
         <v>59</v>
@@ -18472,7 +18472,7 @@
         <v>22</v>
       </c>
       <c r="G380">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H380">
         <v>69</v>
@@ -18504,7 +18504,7 @@
         <v>25</v>
       </c>
       <c r="G381">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H381">
         <v>27</v>
@@ -18536,7 +18536,7 @@
         <v>11</v>
       </c>
       <c r="G382">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H382">
         <v>52</v>
@@ -18568,7 +18568,7 @@
         <v>16</v>
       </c>
       <c r="G383">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H383">
         <v>63</v>
@@ -18600,7 +18600,7 @@
         <v>19</v>
       </c>
       <c r="G384">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H384">
         <v>61</v>
@@ -18632,7 +18632,7 @@
         <v>22</v>
       </c>
       <c r="G385">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H385">
         <v>31</v>
@@ -18664,7 +18664,7 @@
         <v>25</v>
       </c>
       <c r="G386">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H386">
         <v>82</v>
@@ -18696,7 +18696,7 @@
         <v>11</v>
       </c>
       <c r="G387">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H387">
         <v>50</v>
@@ -18728,7 +18728,7 @@
         <v>16</v>
       </c>
       <c r="G388">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H388">
         <v>73</v>
@@ -18760,7 +18760,7 @@
         <v>19</v>
       </c>
       <c r="G389">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H389">
         <v>59</v>
@@ -18792,7 +18792,7 @@
         <v>22</v>
       </c>
       <c r="G390">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H390">
         <v>58</v>
@@ -18824,7 +18824,7 @@
         <v>25</v>
       </c>
       <c r="G391">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H391">
         <v>40</v>
@@ -18856,7 +18856,7 @@
         <v>11</v>
       </c>
       <c r="G392">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H392">
         <v>83</v>
@@ -18888,7 +18888,7 @@
         <v>16</v>
       </c>
       <c r="G393">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H393">
         <v>64</v>
@@ -18920,7 +18920,7 @@
         <v>19</v>
       </c>
       <c r="G394">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H394">
         <v>85</v>
@@ -18952,7 +18952,7 @@
         <v>22</v>
       </c>
       <c r="G395">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H395">
         <v>59</v>
@@ -18984,7 +18984,7 @@
         <v>25</v>
       </c>
       <c r="G396">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H396">
         <v>57</v>
@@ -19016,7 +19016,7 @@
         <v>11</v>
       </c>
       <c r="G397">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H397">
         <v>42</v>
@@ -19048,7 +19048,7 @@
         <v>16</v>
       </c>
       <c r="G398">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H398">
         <v>38</v>
@@ -19080,7 +19080,7 @@
         <v>19</v>
       </c>
       <c r="G399">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H399">
         <v>81</v>
@@ -19112,7 +19112,7 @@
         <v>22</v>
       </c>
       <c r="G400">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H400">
         <v>63</v>
@@ -19144,7 +19144,7 @@
         <v>25</v>
       </c>
       <c r="G401">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H401">
         <v>79</v>
@@ -19176,7 +19176,7 @@
         <v>11</v>
       </c>
       <c r="G402">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H402">
         <v>76</v>
@@ -19208,7 +19208,7 @@
         <v>16</v>
       </c>
       <c r="G403">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H403">
         <v>48</v>
@@ -19240,7 +19240,7 @@
         <v>19</v>
       </c>
       <c r="G404">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H404">
         <v>7</v>
@@ -19272,7 +19272,7 @@
         <v>22</v>
       </c>
       <c r="G405">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H405">
         <v>69</v>
@@ -19304,7 +19304,7 @@
         <v>25</v>
       </c>
       <c r="G406">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H406">
         <v>79</v>
@@ -19336,7 +19336,7 @@
         <v>11</v>
       </c>
       <c r="G407">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H407">
         <v>98</v>
@@ -19368,7 +19368,7 @@
         <v>16</v>
       </c>
       <c r="G408">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H408">
         <v>54</v>
@@ -19400,7 +19400,7 @@
         <v>19</v>
       </c>
       <c r="G409">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H409">
         <v>58</v>
@@ -19432,7 +19432,7 @@
         <v>22</v>
       </c>
       <c r="G410">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H410">
         <v>51</v>
@@ -19464,7 +19464,7 @@
         <v>25</v>
       </c>
       <c r="G411">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H411">
         <v>84</v>
@@ -19496,7 +19496,7 @@
         <v>11</v>
       </c>
       <c r="G412">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H412">
         <v>31</v>
@@ -19528,7 +19528,7 @@
         <v>16</v>
       </c>
       <c r="G413">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H413">
         <v>72</v>
@@ -19560,7 +19560,7 @@
         <v>19</v>
       </c>
       <c r="G414">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H414">
         <v>36</v>
@@ -19592,7 +19592,7 @@
         <v>22</v>
       </c>
       <c r="G415">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H415">
         <v>75</v>
@@ -19624,7 +19624,7 @@
         <v>25</v>
       </c>
       <c r="G416">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H416">
         <v>49</v>
@@ -19656,7 +19656,7 @@
         <v>11</v>
       </c>
       <c r="G417">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H417">
         <v>76</v>
@@ -19688,7 +19688,7 @@
         <v>16</v>
       </c>
       <c r="G418">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H418">
         <v>60</v>
@@ -19720,7 +19720,7 @@
         <v>19</v>
       </c>
       <c r="G419">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H419">
         <v>57</v>
@@ -19752,7 +19752,7 @@
         <v>22</v>
       </c>
       <c r="G420">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H420">
         <v>48</v>
@@ -19784,7 +19784,7 @@
         <v>25</v>
       </c>
       <c r="G421">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H421">
         <v>75</v>
@@ -19816,7 +19816,7 @@
         <v>11</v>
       </c>
       <c r="G422">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H422">
         <v>49</v>
@@ -19848,7 +19848,7 @@
         <v>16</v>
       </c>
       <c r="G423">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H423">
         <v>82</v>
@@ -19880,7 +19880,7 @@
         <v>19</v>
       </c>
       <c r="G424">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H424">
         <v>74</v>
@@ -19912,7 +19912,7 @@
         <v>22</v>
       </c>
       <c r="G425">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H425">
         <v>55</v>
@@ -19944,7 +19944,7 @@
         <v>25</v>
       </c>
       <c r="G426">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H426">
         <v>81</v>
@@ -19976,7 +19976,7 @@
         <v>11</v>
       </c>
       <c r="G427">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H427">
         <v>85</v>
@@ -20008,7 +20008,7 @@
         <v>16</v>
       </c>
       <c r="G428">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H428">
         <v>76</v>
@@ -20040,7 +20040,7 @@
         <v>19</v>
       </c>
       <c r="G429">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H429">
         <v>34</v>
@@ -20072,7 +20072,7 @@
         <v>22</v>
       </c>
       <c r="G430">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H430">
         <v>59</v>
@@ -20104,7 +20104,7 @@
         <v>25</v>
       </c>
       <c r="G431">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H431">
         <v>64</v>
@@ -20136,7 +20136,7 @@
         <v>11</v>
       </c>
       <c r="G432">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H432">
         <v>71</v>
@@ -20168,7 +20168,7 @@
         <v>16</v>
       </c>
       <c r="G433">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H433">
         <v>13</v>
@@ -20200,7 +20200,7 @@
         <v>19</v>
       </c>
       <c r="G434">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H434">
         <v>49</v>
@@ -20232,7 +20232,7 @@
         <v>22</v>
       </c>
       <c r="G435">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H435">
         <v>52</v>
@@ -20264,7 +20264,7 @@
         <v>25</v>
       </c>
       <c r="G436">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H436">
         <v>54</v>
@@ -20296,7 +20296,7 @@
         <v>11</v>
       </c>
       <c r="G437">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H437">
         <v>22</v>
@@ -20328,7 +20328,7 @@
         <v>16</v>
       </c>
       <c r="G438">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H438">
         <v>35</v>
@@ -20360,7 +20360,7 @@
         <v>19</v>
       </c>
       <c r="G439">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H439">
         <v>55</v>
@@ -20392,7 +20392,7 @@
         <v>22</v>
       </c>
       <c r="G440">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H440">
         <v>58</v>
@@ -20424,7 +20424,7 @@
         <v>25</v>
       </c>
       <c r="G441">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H441">
         <v>81</v>
@@ -20456,7 +20456,7 @@
         <v>11</v>
       </c>
       <c r="G442">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H442">
         <v>17</v>
@@ -20488,7 +20488,7 @@
         <v>16</v>
       </c>
       <c r="G443">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H443">
         <v>88</v>
@@ -20520,7 +20520,7 @@
         <v>19</v>
       </c>
       <c r="G444">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H444">
         <v>31</v>
@@ -20552,7 +20552,7 @@
         <v>22</v>
       </c>
       <c r="G445">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H445">
         <v>49</v>
@@ -20584,7 +20584,7 @@
         <v>25</v>
       </c>
       <c r="G446">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H446">
         <v>49</v>
@@ -20616,7 +20616,7 @@
         <v>11</v>
       </c>
       <c r="G447">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H447">
         <v>78</v>
@@ -20648,7 +20648,7 @@
         <v>16</v>
       </c>
       <c r="G448">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H448">
         <v>86</v>
@@ -20680,7 +20680,7 @@
         <v>19</v>
       </c>
       <c r="G449">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H449">
         <v>47</v>
@@ -20712,7 +20712,7 @@
         <v>22</v>
       </c>
       <c r="G450">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H450">
         <v>31</v>
@@ -20744,7 +20744,7 @@
         <v>25</v>
       </c>
       <c r="G451">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H451">
         <v>78</v>
@@ -20776,7 +20776,7 @@
         <v>11</v>
       </c>
       <c r="G452">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H452">
         <v>71</v>
@@ -20808,7 +20808,7 @@
         <v>16</v>
       </c>
       <c r="G453">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H453">
         <v>63</v>
@@ -20840,7 +20840,7 @@
         <v>19</v>
       </c>
       <c r="G454">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H454">
         <v>59</v>
@@ -20872,7 +20872,7 @@
         <v>22</v>
       </c>
       <c r="G455">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H455">
         <v>38</v>
@@ -20904,7 +20904,7 @@
         <v>25</v>
       </c>
       <c r="G456">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H456">
         <v>54</v>
@@ -20936,7 +20936,7 @@
         <v>11</v>
       </c>
       <c r="G457">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H457">
         <v>21</v>
@@ -20968,7 +20968,7 @@
         <v>16</v>
       </c>
       <c r="G458">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H458">
         <v>53</v>
@@ -21000,7 +21000,7 @@
         <v>19</v>
       </c>
       <c r="G459">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H459">
         <v>21</v>
@@ -21032,7 +21032,7 @@
         <v>22</v>
       </c>
       <c r="G460">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H460">
         <v>38</v>
@@ -21064,7 +21064,7 @@
         <v>25</v>
       </c>
       <c r="G461">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H461">
         <v>60</v>
@@ -21096,7 +21096,7 @@
         <v>11</v>
       </c>
       <c r="G462">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H462">
         <v>56</v>
@@ -21128,7 +21128,7 @@
         <v>16</v>
       </c>
       <c r="G463">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H463">
         <v>57</v>
@@ -21160,7 +21160,7 @@
         <v>19</v>
       </c>
       <c r="G464">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H464">
         <v>37</v>
@@ -21192,7 +21192,7 @@
         <v>22</v>
       </c>
       <c r="G465">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H465">
         <v>100</v>
@@ -21224,7 +21224,7 @@
         <v>25</v>
       </c>
       <c r="G466">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H466">
         <v>83</v>
@@ -21256,7 +21256,7 @@
         <v>11</v>
       </c>
       <c r="G467">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H467">
         <v>47</v>
@@ -21288,7 +21288,7 @@
         <v>16</v>
       </c>
       <c r="G468">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H468">
         <v>70</v>
@@ -21320,7 +21320,7 @@
         <v>19</v>
       </c>
       <c r="G469">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H469">
         <v>77</v>
@@ -21352,7 +21352,7 @@
         <v>22</v>
       </c>
       <c r="G470">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H470">
         <v>63</v>
@@ -21384,7 +21384,7 @@
         <v>25</v>
       </c>
       <c r="G471">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H471">
         <v>55</v>
@@ -21416,7 +21416,7 @@
         <v>11</v>
       </c>
       <c r="G472">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H472">
         <v>41</v>
@@ -21448,7 +21448,7 @@
         <v>16</v>
       </c>
       <c r="G473">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H473">
         <v>63</v>
@@ -21480,7 +21480,7 @@
         <v>19</v>
       </c>
       <c r="G474">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H474">
         <v>69</v>
@@ -21512,7 +21512,7 @@
         <v>22</v>
       </c>
       <c r="G475">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H475">
         <v>43</v>
@@ -21544,7 +21544,7 @@
         <v>25</v>
       </c>
       <c r="G476">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H476">
         <v>61</v>
@@ -21576,7 +21576,7 @@
         <v>11</v>
       </c>
       <c r="G477">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H477">
         <v>14</v>
@@ -21608,7 +21608,7 @@
         <v>16</v>
       </c>
       <c r="G478">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H478">
         <v>68</v>
@@ -21640,7 +21640,7 @@
         <v>19</v>
       </c>
       <c r="G479">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H479">
         <v>53</v>
@@ -21672,7 +21672,7 @@
         <v>22</v>
       </c>
       <c r="G480">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H480">
         <v>60</v>
@@ -21704,7 +21704,7 @@
         <v>25</v>
       </c>
       <c r="G481">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H481">
         <v>85</v>
@@ -21736,7 +21736,7 @@
         <v>11</v>
       </c>
       <c r="G482">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H482">
         <v>76</v>
@@ -21768,7 +21768,7 @@
         <v>16</v>
       </c>
       <c r="G483">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H483">
         <v>24</v>
@@ -21800,7 +21800,7 @@
         <v>19</v>
       </c>
       <c r="G484">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H484">
         <v>89</v>
@@ -21832,7 +21832,7 @@
         <v>22</v>
       </c>
       <c r="G485">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H485">
         <v>33</v>
@@ -21864,7 +21864,7 @@
         <v>25</v>
       </c>
       <c r="G486">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H486">
         <v>71</v>
@@ -21896,7 +21896,7 @@
         <v>11</v>
       </c>
       <c r="G487">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H487">
         <v>44</v>
@@ -21928,7 +21928,7 @@
         <v>16</v>
       </c>
       <c r="G488">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H488">
         <v>86</v>
@@ -21960,7 +21960,7 @@
         <v>19</v>
       </c>
       <c r="G489">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H489">
         <v>87</v>
@@ -21992,7 +21992,7 @@
         <v>22</v>
       </c>
       <c r="G490">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H490">
         <v>66</v>
@@ -22024,7 +22024,7 @@
         <v>25</v>
       </c>
       <c r="G491">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H491">
         <v>47</v>
@@ -22056,7 +22056,7 @@
         <v>11</v>
       </c>
       <c r="G492">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H492">
         <v>64</v>
@@ -22088,7 +22088,7 @@
         <v>16</v>
       </c>
       <c r="G493">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H493">
         <v>41</v>
@@ -22120,7 +22120,7 @@
         <v>19</v>
       </c>
       <c r="G494">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H494">
         <v>67</v>
@@ -22152,7 +22152,7 @@
         <v>22</v>
       </c>
       <c r="G495">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H495">
         <v>65</v>
@@ -22184,7 +22184,7 @@
         <v>25</v>
       </c>
       <c r="G496">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H496">
         <v>78</v>
@@ -22216,7 +22216,7 @@
         <v>11</v>
       </c>
       <c r="G497">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H497">
         <v>73</v>
@@ -22248,7 +22248,7 @@
         <v>16</v>
       </c>
       <c r="G498">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H498">
         <v>74</v>
@@ -22280,7 +22280,7 @@
         <v>19</v>
       </c>
       <c r="G499">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H499">
         <v>45</v>
@@ -22312,7 +22312,7 @@
         <v>22</v>
       </c>
       <c r="G500">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H500">
         <v>55</v>
@@ -22344,7 +22344,7 @@
         <v>25</v>
       </c>
       <c r="G501">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H501">
         <v>39</v>
@@ -22376,7 +22376,7 @@
         <v>11</v>
       </c>
       <c r="G502">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H502">
         <v>65</v>
@@ -22408,7 +22408,7 @@
         <v>16</v>
       </c>
       <c r="G503">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H503">
         <v>85</v>
@@ -22440,7 +22440,7 @@
         <v>19</v>
       </c>
       <c r="G504">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H504">
         <v>55</v>
@@ -22472,7 +22472,7 @@
         <v>22</v>
       </c>
       <c r="G505">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H505">
         <v>73</v>
@@ -22504,7 +22504,7 @@
         <v>25</v>
       </c>
       <c r="G506">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H506">
         <v>28</v>
@@ -22536,7 +22536,7 @@
         <v>11</v>
       </c>
       <c r="G507">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H507">
         <v>33</v>
@@ -22568,7 +22568,7 @@
         <v>16</v>
       </c>
       <c r="G508">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H508">
         <v>58</v>
@@ -22600,7 +22600,7 @@
         <v>19</v>
       </c>
       <c r="G509">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H509">
         <v>98</v>
@@ -22632,7 +22632,7 @@
         <v>22</v>
       </c>
       <c r="G510">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H510">
         <v>68</v>
@@ -22664,7 +22664,7 @@
         <v>25</v>
       </c>
       <c r="G511">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H511">
         <v>77</v>
@@ -22696,7 +22696,7 @@
         <v>11</v>
       </c>
       <c r="G512">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H512">
         <v>73</v>
@@ -22728,7 +22728,7 @@
         <v>16</v>
       </c>
       <c r="G513">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H513">
         <v>49</v>
@@ -22760,7 +22760,7 @@
         <v>19</v>
       </c>
       <c r="G514">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H514">
         <v>63</v>
@@ -22792,7 +22792,7 @@
         <v>22</v>
       </c>
       <c r="G515">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H515">
         <v>60</v>
@@ -22824,7 +22824,7 @@
         <v>25</v>
       </c>
       <c r="G516">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H516">
         <v>97</v>
@@ -22856,7 +22856,7 @@
         <v>11</v>
       </c>
       <c r="G517">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H517">
         <v>97</v>
@@ -22888,7 +22888,7 @@
         <v>16</v>
       </c>
       <c r="G518">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H518">
         <v>62</v>
@@ -22920,7 +22920,7 @@
         <v>19</v>
       </c>
       <c r="G519">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H519">
         <v>36</v>
@@ -22952,7 +22952,7 @@
         <v>22</v>
       </c>
       <c r="G520">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H520">
         <v>47</v>
@@ -22984,7 +22984,7 @@
         <v>25</v>
       </c>
       <c r="G521">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H521">
         <v>40</v>
@@ -23016,7 +23016,7 @@
         <v>11</v>
       </c>
       <c r="G522">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H522">
         <v>27</v>
@@ -23048,7 +23048,7 @@
         <v>16</v>
       </c>
       <c r="G523">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H523">
         <v>85</v>
@@ -23080,7 +23080,7 @@
         <v>19</v>
       </c>
       <c r="G524">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H524">
         <v>46</v>
@@ -23112,7 +23112,7 @@
         <v>22</v>
       </c>
       <c r="G525">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H525">
         <v>51</v>
@@ -23144,7 +23144,7 @@
         <v>25</v>
       </c>
       <c r="G526">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H526">
         <v>49</v>
@@ -23176,7 +23176,7 @@
         <v>11</v>
       </c>
       <c r="G527">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H527">
         <v>54</v>
@@ -23208,7 +23208,7 @@
         <v>16</v>
       </c>
       <c r="G528">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H528">
         <v>50</v>
@@ -23240,7 +23240,7 @@
         <v>19</v>
       </c>
       <c r="G529">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H529">
         <v>70</v>
@@ -23272,7 +23272,7 @@
         <v>22</v>
       </c>
       <c r="G530">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H530">
         <v>28</v>
@@ -23304,7 +23304,7 @@
         <v>25</v>
       </c>
       <c r="G531">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H531">
         <v>74</v>
@@ -23336,7 +23336,7 @@
         <v>11</v>
       </c>
       <c r="G532">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H532">
         <v>78</v>
@@ -23368,7 +23368,7 @@
         <v>16</v>
       </c>
       <c r="G533">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H533">
         <v>66</v>
@@ -23400,7 +23400,7 @@
         <v>19</v>
       </c>
       <c r="G534">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H534">
         <v>47</v>
@@ -23432,7 +23432,7 @@
         <v>22</v>
       </c>
       <c r="G535">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H535">
         <v>79</v>
@@ -23464,7 +23464,7 @@
         <v>25</v>
       </c>
       <c r="G536">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H536">
         <v>90</v>
@@ -23496,7 +23496,7 @@
         <v>11</v>
       </c>
       <c r="G537">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H537">
         <v>49</v>
@@ -23528,7 +23528,7 @@
         <v>16</v>
       </c>
       <c r="G538">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H538">
         <v>8</v>
@@ -23560,7 +23560,7 @@
         <v>19</v>
       </c>
       <c r="G539">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H539">
         <v>80</v>
@@ -23592,7 +23592,7 @@
         <v>22</v>
       </c>
       <c r="G540">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H540">
         <v>42</v>
@@ -23624,7 +23624,7 @@
         <v>25</v>
       </c>
       <c r="G541">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H541">
         <v>46</v>
@@ -23656,7 +23656,7 @@
         <v>11</v>
       </c>
       <c r="G542">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H542">
         <v>68</v>
@@ -23688,7 +23688,7 @@
         <v>16</v>
       </c>
       <c r="G543">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H543">
         <v>43</v>
@@ -23720,7 +23720,7 @@
         <v>19</v>
       </c>
       <c r="G544">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H544">
         <v>78</v>
@@ -23752,7 +23752,7 @@
         <v>22</v>
       </c>
       <c r="G545">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H545">
         <v>81</v>
@@ -23784,7 +23784,7 @@
         <v>25</v>
       </c>
       <c r="G546">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H546">
         <v>52</v>
@@ -23816,7 +23816,7 @@
         <v>11</v>
       </c>
       <c r="G547">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H547">
         <v>36</v>
@@ -23848,7 +23848,7 @@
         <v>16</v>
       </c>
       <c r="G548">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H548">
         <v>97</v>
@@ -23880,7 +23880,7 @@
         <v>19</v>
       </c>
       <c r="G549">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H549">
         <v>53</v>
@@ -23912,7 +23912,7 @@
         <v>22</v>
       </c>
       <c r="G550">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H550">
         <v>80</v>
@@ -23944,7 +23944,7 @@
         <v>25</v>
       </c>
       <c r="G551">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H551">
         <v>91</v>
@@ -23976,7 +23976,7 @@
         <v>11</v>
       </c>
       <c r="G552">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H552">
         <v>48</v>
@@ -24008,7 +24008,7 @@
         <v>16</v>
       </c>
       <c r="G553">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H553">
         <v>49</v>
@@ -24040,7 +24040,7 @@
         <v>19</v>
       </c>
       <c r="G554">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H554">
         <v>23</v>
@@ -24072,7 +24072,7 @@
         <v>22</v>
       </c>
       <c r="G555">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H555">
         <v>66</v>
@@ -24104,7 +24104,7 @@
         <v>25</v>
       </c>
       <c r="G556">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H556">
         <v>35</v>
@@ -24136,7 +24136,7 @@
         <v>11</v>
       </c>
       <c r="G557">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H557">
         <v>86</v>
@@ -24168,7 +24168,7 @@
         <v>16</v>
       </c>
       <c r="G558">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H558">
         <v>47</v>
@@ -24200,7 +24200,7 @@
         <v>19</v>
       </c>
       <c r="G559">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H559">
         <v>54</v>
@@ -24232,7 +24232,7 @@
         <v>22</v>
       </c>
       <c r="G560">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H560">
         <v>52</v>
@@ -24264,7 +24264,7 @@
         <v>25</v>
       </c>
       <c r="G561">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H561">
         <v>74</v>
@@ -24296,7 +24296,7 @@
         <v>11</v>
       </c>
       <c r="G562">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H562">
         <v>46</v>
@@ -24328,7 +24328,7 @@
         <v>16</v>
       </c>
       <c r="G563">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H563">
         <v>34</v>
@@ -24360,7 +24360,7 @@
         <v>19</v>
       </c>
       <c r="G564">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H564">
         <v>70</v>
@@ -24392,7 +24392,7 @@
         <v>22</v>
       </c>
       <c r="G565">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H565">
         <v>53</v>
@@ -24424,7 +24424,7 @@
         <v>25</v>
       </c>
       <c r="G566">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H566">
         <v>70</v>
@@ -24456,7 +24456,7 @@
         <v>11</v>
       </c>
       <c r="G567">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H567">
         <v>67</v>
@@ -24488,7 +24488,7 @@
         <v>16</v>
       </c>
       <c r="G568">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H568">
         <v>66</v>
@@ -24520,7 +24520,7 @@
         <v>19</v>
       </c>
       <c r="G569">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H569">
         <v>38</v>
@@ -24552,7 +24552,7 @@
         <v>22</v>
       </c>
       <c r="G570">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H570">
         <v>40</v>
@@ -24584,7 +24584,7 @@
         <v>25</v>
       </c>
       <c r="G571">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H571">
         <v>78</v>
@@ -24616,7 +24616,7 @@
         <v>11</v>
       </c>
       <c r="G572">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H572">
         <v>83</v>
@@ -24648,7 +24648,7 @@
         <v>16</v>
       </c>
       <c r="G573">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H573">
         <v>76</v>
@@ -24680,7 +24680,7 @@
         <v>19</v>
       </c>
       <c r="G574">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H574">
         <v>60</v>
@@ -24712,7 +24712,7 @@
         <v>22</v>
       </c>
       <c r="G575">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H575">
         <v>69</v>
@@ -24744,7 +24744,7 @@
         <v>25</v>
       </c>
       <c r="G576">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H576">
         <v>88</v>
@@ -24776,7 +24776,7 @@
         <v>11</v>
       </c>
       <c r="G577">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H577">
         <v>90</v>
@@ -24808,7 +24808,7 @@
         <v>16</v>
       </c>
       <c r="G578">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H578">
         <v>69</v>
@@ -24840,7 +24840,7 @@
         <v>19</v>
       </c>
       <c r="G579">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H579">
         <v>26</v>
@@ -24872,7 +24872,7 @@
         <v>22</v>
       </c>
       <c r="G580">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H580">
         <v>64</v>
@@ -24904,7 +24904,7 @@
         <v>25</v>
       </c>
       <c r="G581">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H581">
         <v>70</v>
@@ -24936,7 +24936,7 @@
         <v>11</v>
       </c>
       <c r="G582">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H582">
         <v>39</v>
@@ -24968,7 +24968,7 @@
         <v>16</v>
       </c>
       <c r="G583">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H583">
         <v>51</v>
@@ -25000,7 +25000,7 @@
         <v>19</v>
       </c>
       <c r="G584">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H584">
         <v>76</v>
@@ -25032,7 +25032,7 @@
         <v>22</v>
       </c>
       <c r="G585">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H585">
         <v>75</v>
@@ -25064,7 +25064,7 @@
         <v>25</v>
       </c>
       <c r="G586">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H586">
         <v>50</v>
@@ -25096,7 +25096,7 @@
         <v>11</v>
       </c>
       <c r="G587">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H587">
         <v>45</v>
@@ -25128,7 +25128,7 @@
         <v>16</v>
       </c>
       <c r="G588">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H588">
         <v>63</v>
@@ -25160,7 +25160,7 @@
         <v>19</v>
       </c>
       <c r="G589">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H589">
         <v>84</v>
@@ -25192,7 +25192,7 @@
         <v>22</v>
       </c>
       <c r="G590">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H590">
         <v>70</v>
@@ -25224,7 +25224,7 @@
         <v>25</v>
       </c>
       <c r="G591">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H591">
         <v>82</v>
@@ -25256,7 +25256,7 @@
         <v>11</v>
       </c>
       <c r="G592">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H592">
         <v>64</v>
@@ -25288,7 +25288,7 @@
         <v>16</v>
       </c>
       <c r="G593">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H593">
         <v>100</v>
@@ -25320,7 +25320,7 @@
         <v>19</v>
       </c>
       <c r="G594">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H594">
         <v>49</v>
@@ -25352,7 +25352,7 @@
         <v>22</v>
       </c>
       <c r="G595">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H595">
         <v>52</v>
@@ -25384,7 +25384,7 @@
         <v>25</v>
       </c>
       <c r="G596">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H596">
         <v>58</v>
@@ -25416,7 +25416,7 @@
         <v>11</v>
       </c>
       <c r="G597">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H597">
         <v>59</v>
@@ -25448,7 +25448,7 @@
         <v>16</v>
       </c>
       <c r="G598">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H598">
         <v>49</v>
@@ -25480,7 +25480,7 @@
         <v>19</v>
       </c>
       <c r="G599">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H599">
         <v>64</v>
@@ -25512,7 +25512,7 @@
         <v>22</v>
       </c>
       <c r="G600">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H600">
         <v>58</v>
@@ -25544,7 +25544,7 @@
         <v>25</v>
       </c>
       <c r="G601">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H601">
         <v>77</v>
@@ -25576,7 +25576,7 @@
         <v>11</v>
       </c>
       <c r="G602">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H602">
         <v>59</v>
@@ -25608,7 +25608,7 @@
         <v>16</v>
       </c>
       <c r="G603">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H603">
         <v>100</v>
@@ -25640,7 +25640,7 @@
         <v>19</v>
       </c>
       <c r="G604">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H604">
         <v>69</v>
@@ -25672,7 +25672,7 @@
         <v>22</v>
       </c>
       <c r="G605">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H605">
         <v>49</v>
@@ -25704,7 +25704,7 @@
         <v>25</v>
       </c>
       <c r="G606">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H606">
         <v>61</v>
@@ -25736,7 +25736,7 @@
         <v>11</v>
       </c>
       <c r="G607">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H607">
         <v>74</v>
@@ -25768,7 +25768,7 @@
         <v>16</v>
       </c>
       <c r="G608">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H608">
         <v>50</v>
@@ -25800,7 +25800,7 @@
         <v>19</v>
       </c>
       <c r="G609">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H609">
         <v>42</v>
@@ -25832,7 +25832,7 @@
         <v>22</v>
       </c>
       <c r="G610">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H610">
         <v>66</v>
@@ -25864,7 +25864,7 @@
         <v>25</v>
       </c>
       <c r="G611">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H611">
         <v>57</v>
@@ -25896,7 +25896,7 @@
         <v>11</v>
       </c>
       <c r="G612">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H612">
         <v>46</v>
@@ -25928,7 +25928,7 @@
         <v>16</v>
       </c>
       <c r="G613">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H613">
         <v>63</v>
@@ -25960,7 +25960,7 @@
         <v>19</v>
       </c>
       <c r="G614">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H614">
         <v>100</v>
@@ -25992,7 +25992,7 @@
         <v>22</v>
       </c>
       <c r="G615">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H615">
         <v>75</v>
@@ -26024,7 +26024,7 @@
         <v>25</v>
       </c>
       <c r="G616">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H616">
         <v>100</v>
@@ -26056,7 +26056,7 @@
         <v>11</v>
       </c>
       <c r="G617">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H617">
         <v>66</v>
@@ -26088,7 +26088,7 @@
         <v>16</v>
       </c>
       <c r="G618">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H618">
         <v>52</v>
@@ -26120,7 +26120,7 @@
         <v>19</v>
       </c>
       <c r="G619">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H619">
         <v>30</v>
@@ -26152,7 +26152,7 @@
         <v>22</v>
       </c>
       <c r="G620">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H620">
         <v>56</v>
@@ -26184,7 +26184,7 @@
         <v>25</v>
       </c>
       <c r="G621">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H621">
         <v>33</v>
@@ -26216,7 +26216,7 @@
         <v>11</v>
       </c>
       <c r="G622">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H622">
         <v>56</v>
@@ -26248,7 +26248,7 @@
         <v>16</v>
       </c>
       <c r="G623">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H623">
         <v>82</v>
@@ -26280,7 +26280,7 @@
         <v>19</v>
       </c>
       <c r="G624">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H624">
         <v>62</v>
@@ -26312,7 +26312,7 @@
         <v>22</v>
       </c>
       <c r="G625">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H625">
         <v>50</v>
@@ -26344,7 +26344,7 @@
         <v>25</v>
       </c>
       <c r="G626">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H626">
         <v>83</v>
@@ -26376,7 +26376,7 @@
         <v>11</v>
       </c>
       <c r="G627">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H627">
         <v>40</v>
@@ -26408,7 +26408,7 @@
         <v>16</v>
       </c>
       <c r="G628">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H628">
         <v>80</v>
@@ -26440,7 +26440,7 @@
         <v>19</v>
       </c>
       <c r="G629">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H629">
         <v>47</v>
@@ -26472,7 +26472,7 @@
         <v>22</v>
       </c>
       <c r="G630">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H630">
         <v>86</v>
@@ -26504,7 +26504,7 @@
         <v>25</v>
       </c>
       <c r="G631">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H631">
         <v>62</v>
@@ -26536,7 +26536,7 @@
         <v>11</v>
       </c>
       <c r="G632">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H632">
         <v>49</v>
@@ -26568,7 +26568,7 @@
         <v>16</v>
       </c>
       <c r="G633">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H633">
         <v>36</v>
@@ -26600,7 +26600,7 @@
         <v>19</v>
       </c>
       <c r="G634">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H634">
         <v>99</v>
@@ -26632,7 +26632,7 @@
         <v>22</v>
       </c>
       <c r="G635">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H635">
         <v>78</v>
@@ -26664,7 +26664,7 @@
         <v>25</v>
       </c>
       <c r="G636">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H636">
         <v>54</v>
@@ -26696,7 +26696,7 @@
         <v>11</v>
       </c>
       <c r="G637">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H637">
         <v>58</v>
@@ -26728,7 +26728,7 @@
         <v>16</v>
       </c>
       <c r="G638">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H638">
         <v>88</v>
@@ -26760,7 +26760,7 @@
         <v>19</v>
       </c>
       <c r="G639">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H639">
         <v>82</v>
@@ -26792,7 +26792,7 @@
         <v>22</v>
       </c>
       <c r="G640">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H640">
         <v>60</v>
@@ -26824,7 +26824,7 @@
         <v>25</v>
       </c>
       <c r="G641">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H641">
         <v>53</v>
@@ -26856,7 +26856,7 @@
         <v>11</v>
       </c>
       <c r="G642">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H642">
         <v>79</v>
@@ -26888,7 +26888,7 @@
         <v>16</v>
       </c>
       <c r="G643">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H643">
         <v>32</v>
@@ -26920,7 +26920,7 @@
         <v>19</v>
       </c>
       <c r="G644">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H644">
         <v>84</v>
@@ -26952,7 +26952,7 @@
         <v>22</v>
       </c>
       <c r="G645">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H645">
         <v>57</v>
@@ -26984,7 +26984,7 @@
         <v>25</v>
       </c>
       <c r="G646">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H646">
         <v>61</v>
@@ -27016,7 +27016,7 @@
         <v>11</v>
       </c>
       <c r="G647">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H647">
         <v>51</v>
@@ -27048,7 +27048,7 @@
         <v>16</v>
       </c>
       <c r="G648">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H648">
         <v>53</v>
@@ -27080,7 +27080,7 @@
         <v>19</v>
       </c>
       <c r="G649">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H649">
         <v>51</v>
@@ -27112,7 +27112,7 @@
         <v>22</v>
       </c>
       <c r="G650">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H650">
         <v>65</v>
@@ -27144,7 +27144,7 @@
         <v>25</v>
       </c>
       <c r="G651">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H651">
         <v>83</v>
@@ -27176,7 +27176,7 @@
         <v>11</v>
       </c>
       <c r="G652">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H652">
         <v>87</v>
@@ -27208,7 +27208,7 @@
         <v>16</v>
       </c>
       <c r="G653">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H653">
         <v>50</v>
@@ -27240,7 +27240,7 @@
         <v>19</v>
       </c>
       <c r="G654">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H654">
         <v>58</v>
@@ -27272,7 +27272,7 @@
         <v>22</v>
       </c>
       <c r="G655">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H655">
         <v>72</v>
@@ -27304,7 +27304,7 @@
         <v>25</v>
       </c>
       <c r="G656">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H656">
         <v>18</v>
@@ -27336,7 +27336,7 @@
         <v>11</v>
       </c>
       <c r="G657">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H657">
         <v>72</v>
@@ -27368,7 +27368,7 @@
         <v>16</v>
       </c>
       <c r="G658">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H658">
         <v>74</v>
@@ -27400,7 +27400,7 @@
         <v>19</v>
       </c>
       <c r="G659">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H659">
         <v>91</v>
@@ -27432,7 +27432,7 @@
         <v>22</v>
       </c>
       <c r="G660">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H660">
         <v>59</v>
@@ -27464,7 +27464,7 @@
         <v>25</v>
       </c>
       <c r="G661">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H661">
         <v>61</v>
@@ -27496,7 +27496,7 @@
         <v>11</v>
       </c>
       <c r="G662">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H662">
         <v>25</v>
@@ -27528,7 +27528,7 @@
         <v>16</v>
       </c>
       <c r="G663">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H663">
         <v>90</v>
@@ -27560,7 +27560,7 @@
         <v>19</v>
       </c>
       <c r="G664">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H664">
         <v>57</v>
@@ -27592,7 +27592,7 @@
         <v>22</v>
       </c>
       <c r="G665">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H665">
         <v>100</v>
@@ -27624,7 +27624,7 @@
         <v>25</v>
       </c>
       <c r="G666">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H666">
         <v>61</v>
@@ -27656,7 +27656,7 @@
         <v>11</v>
       </c>
       <c r="G667">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H667">
         <v>51</v>
@@ -27688,7 +27688,7 @@
         <v>16</v>
       </c>
       <c r="G668">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H668">
         <v>75</v>
@@ -27720,7 +27720,7 @@
         <v>19</v>
       </c>
       <c r="G669">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H669">
         <v>65</v>
@@ -27752,7 +27752,7 @@
         <v>22</v>
       </c>
       <c r="G670">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H670">
         <v>41</v>
@@ -27784,7 +27784,7 @@
         <v>25</v>
       </c>
       <c r="G671">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H671">
         <v>45</v>
@@ -27816,7 +27816,7 @@
         <v>11</v>
       </c>
       <c r="G672">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H672">
         <v>100</v>
@@ -27848,7 +27848,7 @@
         <v>16</v>
       </c>
       <c r="G673">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H673">
         <v>60</v>
@@ -27880,7 +27880,7 @@
         <v>19</v>
       </c>
       <c r="G674">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H674">
         <v>56</v>
@@ -27912,7 +27912,7 @@
         <v>22</v>
       </c>
       <c r="G675">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H675">
         <v>44</v>
@@ -27944,7 +27944,7 @@
         <v>25</v>
       </c>
       <c r="G676">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H676">
         <v>83</v>
@@ -27976,7 +27976,7 @@
         <v>11</v>
       </c>
       <c r="G677">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H677">
         <v>26</v>
@@ -28008,7 +28008,7 @@
         <v>16</v>
       </c>
       <c r="G678">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H678">
         <v>64</v>
@@ -28040,7 +28040,7 @@
         <v>19</v>
       </c>
       <c r="G679">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H679">
         <v>33</v>
@@ -28072,7 +28072,7 @@
         <v>22</v>
       </c>
       <c r="G680">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H680">
         <v>78</v>
@@ -28104,7 +28104,7 @@
         <v>25</v>
       </c>
       <c r="G681">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H681">
         <v>52</v>
@@ -28136,7 +28136,7 @@
         <v>11</v>
       </c>
       <c r="G682">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H682">
         <v>31</v>
@@ -28168,7 +28168,7 @@
         <v>16</v>
       </c>
       <c r="G683">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H683">
         <v>69</v>
@@ -28200,7 +28200,7 @@
         <v>19</v>
       </c>
       <c r="G684">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H684">
         <v>27</v>
@@ -28232,7 +28232,7 @@
         <v>22</v>
       </c>
       <c r="G685">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H685">
         <v>40</v>
@@ -28264,7 +28264,7 @@
         <v>25</v>
       </c>
       <c r="G686">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H686">
         <v>100</v>
@@ -28296,7 +28296,7 @@
         <v>11</v>
       </c>
       <c r="G687">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H687">
         <v>40</v>
@@ -28328,7 +28328,7 @@
         <v>16</v>
       </c>
       <c r="G688">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H688">
         <v>55</v>
@@ -28360,7 +28360,7 @@
         <v>19</v>
       </c>
       <c r="G689">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H689">
         <v>52</v>
@@ -28392,7 +28392,7 @@
         <v>22</v>
       </c>
       <c r="G690">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H690">
         <v>100</v>
@@ -28424,7 +28424,7 @@
         <v>25</v>
       </c>
       <c r="G691">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H691">
         <v>75</v>
@@ -28456,7 +28456,7 @@
         <v>11</v>
       </c>
       <c r="G692">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H692">
         <v>56</v>
@@ -28488,7 +28488,7 @@
         <v>16</v>
       </c>
       <c r="G693">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H693">
         <v>33</v>
@@ -28520,7 +28520,7 @@
         <v>19</v>
       </c>
       <c r="G694">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H694">
         <v>76</v>
@@ -28552,7 +28552,7 @@
         <v>22</v>
       </c>
       <c r="G695">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H695">
         <v>12</v>
@@ -28584,7 +28584,7 @@
         <v>25</v>
       </c>
       <c r="G696">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H696">
         <v>79</v>
@@ -28616,7 +28616,7 @@
         <v>11</v>
       </c>
       <c r="G697">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H697">
         <v>76</v>
@@ -28648,7 +28648,7 @@
         <v>16</v>
       </c>
       <c r="G698">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H698">
         <v>60</v>
@@ -28680,7 +28680,7 @@
         <v>19</v>
       </c>
       <c r="G699">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H699">
         <v>17</v>
@@ -28712,7 +28712,7 @@
         <v>22</v>
       </c>
       <c r="G700">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H700">
         <v>100</v>
@@ -28744,7 +28744,7 @@
         <v>25</v>
       </c>
       <c r="G701">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H701">
         <v>62</v>
@@ -28776,7 +28776,7 @@
         <v>11</v>
       </c>
       <c r="G702">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H702">
         <v>42</v>
@@ -28808,7 +28808,7 @@
         <v>16</v>
       </c>
       <c r="G703">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H703">
         <v>42</v>
@@ -28840,7 +28840,7 @@
         <v>19</v>
       </c>
       <c r="G704">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H704">
         <v>42</v>
@@ -28872,7 +28872,7 @@
         <v>22</v>
       </c>
       <c r="G705">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H705">
         <v>69</v>
@@ -28904,7 +28904,7 @@
         <v>25</v>
       </c>
       <c r="G706">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H706">
         <v>89</v>
@@ -28936,7 +28936,7 @@
         <v>11</v>
       </c>
       <c r="G707">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H707">
         <v>52</v>
@@ -28968,7 +28968,7 @@
         <v>16</v>
       </c>
       <c r="G708">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H708">
         <v>31</v>
@@ -29000,7 +29000,7 @@
         <v>19</v>
       </c>
       <c r="G709">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H709">
         <v>40</v>
@@ -29032,7 +29032,7 @@
         <v>22</v>
       </c>
       <c r="G710">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H710">
         <v>75</v>
@@ -29064,7 +29064,7 @@
         <v>25</v>
       </c>
       <c r="G711">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H711">
         <v>35</v>
@@ -29096,7 +29096,7 @@
         <v>11</v>
       </c>
       <c r="G712">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H712">
         <v>51</v>
@@ -29128,7 +29128,7 @@
         <v>16</v>
       </c>
       <c r="G713">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H713">
         <v>44</v>
@@ -29160,7 +29160,7 @@
         <v>19</v>
       </c>
       <c r="G714">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H714">
         <v>65</v>
@@ -29192,7 +29192,7 @@
         <v>22</v>
       </c>
       <c r="G715">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H715">
         <v>85</v>
@@ -29224,7 +29224,7 @@
         <v>25</v>
       </c>
       <c r="G716">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H716">
         <v>11</v>
@@ -29256,7 +29256,7 @@
         <v>11</v>
       </c>
       <c r="G717">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H717">
         <v>81</v>
@@ -29288,7 +29288,7 @@
         <v>16</v>
       </c>
       <c r="G718">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H718">
         <v>49</v>
@@ -29320,7 +29320,7 @@
         <v>19</v>
       </c>
       <c r="G719">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H719">
         <v>47</v>
@@ -29352,7 +29352,7 @@
         <v>22</v>
       </c>
       <c r="G720">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H720">
         <v>70</v>
@@ -29384,7 +29384,7 @@
         <v>25</v>
       </c>
       <c r="G721">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H721">
         <v>73</v>
@@ -29416,7 +29416,7 @@
         <v>11</v>
       </c>
       <c r="G722">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H722">
         <v>47</v>
@@ -29448,7 +29448,7 @@
         <v>16</v>
       </c>
       <c r="G723">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H723">
         <v>29</v>
@@ -29480,7 +29480,7 @@
         <v>19</v>
       </c>
       <c r="G724">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H724">
         <v>75</v>
@@ -29512,7 +29512,7 @@
         <v>22</v>
       </c>
       <c r="G725">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H725">
         <v>55</v>
@@ -29544,7 +29544,7 @@
         <v>25</v>
       </c>
       <c r="G726">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H726">
         <v>48</v>
@@ -29576,7 +29576,7 @@
         <v>11</v>
       </c>
       <c r="G727">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H727">
         <v>56</v>
@@ -29608,7 +29608,7 @@
         <v>16</v>
       </c>
       <c r="G728">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H728">
         <v>42</v>
@@ -29640,7 +29640,7 @@
         <v>19</v>
       </c>
       <c r="G729">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H729">
         <v>69</v>
@@ -29672,7 +29672,7 @@
         <v>22</v>
       </c>
       <c r="G730">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H730">
         <v>38</v>
@@ -29704,7 +29704,7 @@
         <v>25</v>
       </c>
       <c r="G731">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H731">
         <v>100</v>
@@ -29736,7 +29736,7 @@
         <v>11</v>
       </c>
       <c r="G732">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H732">
         <v>64</v>
@@ -29768,7 +29768,7 @@
         <v>16</v>
       </c>
       <c r="G733">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H733">
         <v>81</v>
@@ -29800,7 +29800,7 @@
         <v>19</v>
       </c>
       <c r="G734">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H734">
         <v>61</v>
@@ -29832,7 +29832,7 @@
         <v>22</v>
       </c>
       <c r="G735">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H735">
         <v>81</v>
@@ -29864,7 +29864,7 @@
         <v>25</v>
       </c>
       <c r="G736">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H736">
         <v>43</v>
@@ -29896,7 +29896,7 @@
         <v>11</v>
       </c>
       <c r="G737">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H737">
         <v>59</v>
@@ -29928,7 +29928,7 @@
         <v>16</v>
       </c>
       <c r="G738">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H738">
         <v>100</v>
@@ -29960,7 +29960,7 @@
         <v>19</v>
       </c>
       <c r="G739">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H739">
         <v>75</v>
@@ -29992,7 +29992,7 @@
         <v>22</v>
       </c>
       <c r="G740">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H740">
         <v>73</v>
@@ -30024,7 +30024,7 @@
         <v>25</v>
       </c>
       <c r="G741">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H741">
         <v>41</v>
@@ -30056,7 +30056,7 @@
         <v>11</v>
       </c>
       <c r="G742">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H742">
         <v>48</v>
@@ -30088,7 +30088,7 @@
         <v>16</v>
       </c>
       <c r="G743">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H743">
         <v>59</v>
@@ -30120,7 +30120,7 @@
         <v>19</v>
       </c>
       <c r="G744">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H744">
         <v>90</v>
@@ -30152,7 +30152,7 @@
         <v>22</v>
       </c>
       <c r="G745">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H745">
         <v>78</v>
@@ -30184,7 +30184,7 @@
         <v>25</v>
       </c>
       <c r="G746">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H746">
         <v>38</v>
@@ -30216,7 +30216,7 @@
         <v>11</v>
       </c>
       <c r="G747">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H747">
         <v>40</v>
@@ -30248,7 +30248,7 @@
         <v>16</v>
       </c>
       <c r="G748">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H748">
         <v>66</v>
@@ -30280,7 +30280,7 @@
         <v>19</v>
       </c>
       <c r="G749">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H749">
         <v>79</v>
@@ -30312,7 +30312,7 @@
         <v>22</v>
       </c>
       <c r="G750">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H750">
         <v>58</v>
@@ -30344,7 +30344,7 @@
         <v>25</v>
       </c>
       <c r="G751">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H751">
         <v>45</v>
@@ -30376,7 +30376,7 @@
         <v>11</v>
       </c>
       <c r="G752">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H752">
         <v>76</v>
@@ -30408,7 +30408,7 @@
         <v>16</v>
       </c>
       <c r="G753">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H753">
         <v>26</v>
@@ -30440,7 +30440,7 @@
         <v>19</v>
       </c>
       <c r="G754">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H754">
         <v>58</v>
@@ -30472,7 +30472,7 @@
         <v>22</v>
       </c>
       <c r="G755">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H755">
         <v>78</v>
@@ -30504,7 +30504,7 @@
         <v>25</v>
       </c>
       <c r="G756">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H756">
         <v>59</v>
@@ -30536,7 +30536,7 @@
         <v>11</v>
       </c>
       <c r="G757">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H757">
         <v>62</v>
@@ -30568,7 +30568,7 @@
         <v>16</v>
       </c>
       <c r="G758">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H758">
         <v>99</v>
@@ -30600,7 +30600,7 @@
         <v>19</v>
       </c>
       <c r="G759">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H759">
         <v>41</v>
@@ -30632,7 +30632,7 @@
         <v>22</v>
       </c>
       <c r="G760">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H760">
         <v>66</v>
@@ -30664,7 +30664,7 @@
         <v>25</v>
       </c>
       <c r="G761">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H761">
         <v>70</v>
@@ -30696,7 +30696,7 @@
         <v>11</v>
       </c>
       <c r="G762">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H762">
         <v>69</v>
@@ -30728,7 +30728,7 @@
         <v>16</v>
       </c>
       <c r="G763">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H763">
         <v>42</v>
@@ -30760,7 +30760,7 @@
         <v>19</v>
       </c>
       <c r="G764">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H764">
         <v>70</v>
@@ -30792,7 +30792,7 @@
         <v>22</v>
       </c>
       <c r="G765">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H765">
         <v>61</v>
@@ -30824,7 +30824,7 @@
         <v>25</v>
       </c>
       <c r="G766">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H766">
         <v>3</v>
@@ -30856,7 +30856,7 @@
         <v>11</v>
       </c>
       <c r="G767">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H767">
         <v>70</v>
@@ -30888,7 +30888,7 @@
         <v>16</v>
       </c>
       <c r="G768">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H768">
         <v>54</v>
@@ -30920,7 +30920,7 @@
         <v>19</v>
       </c>
       <c r="G769">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H769">
         <v>49</v>
@@ -30952,7 +30952,7 @@
         <v>22</v>
       </c>
       <c r="G770">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H770">
         <v>72</v>
@@ -30984,7 +30984,7 @@
         <v>25</v>
       </c>
       <c r="G771">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H771">
         <v>80</v>
@@ -31016,7 +31016,7 @@
         <v>11</v>
       </c>
       <c r="G772">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H772">
         <v>42</v>
@@ -31048,7 +31048,7 @@
         <v>16</v>
       </c>
       <c r="G773">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H773">
         <v>69</v>
@@ -31080,7 +31080,7 @@
         <v>19</v>
       </c>
       <c r="G774">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H774">
         <v>84</v>
@@ -31112,7 +31112,7 @@
         <v>22</v>
       </c>
       <c r="G775">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H775">
         <v>60</v>
@@ -31144,7 +31144,7 @@
         <v>25</v>
       </c>
       <c r="G776">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H776">
         <v>93</v>
@@ -31176,7 +31176,7 @@
         <v>11</v>
       </c>
       <c r="G777">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H777">
         <v>95</v>
@@ -31208,7 +31208,7 @@
         <v>16</v>
       </c>
       <c r="G778">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H778">
         <v>43</v>
@@ -31240,7 +31240,7 @@
         <v>19</v>
       </c>
       <c r="G779">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H779">
         <v>58</v>
@@ -31272,7 +31272,7 @@
         <v>22</v>
       </c>
       <c r="G780">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H780">
         <v>44</v>
@@ -31304,7 +31304,7 @@
         <v>25</v>
       </c>
       <c r="G781">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H781">
         <v>49</v>
@@ -31336,7 +31336,7 @@
         <v>11</v>
       </c>
       <c r="G782">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H782">
         <v>60</v>
@@ -31368,7 +31368,7 @@
         <v>16</v>
       </c>
       <c r="G783">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H783">
         <v>82</v>
@@ -31400,7 +31400,7 @@
         <v>19</v>
       </c>
       <c r="G784">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H784">
         <v>55</v>
@@ -31432,7 +31432,7 @@
         <v>22</v>
       </c>
       <c r="G785">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H785">
         <v>34</v>
@@ -31464,7 +31464,7 @@
         <v>25</v>
       </c>
       <c r="G786">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H786">
         <v>72</v>
@@ -31496,7 +31496,7 @@
         <v>11</v>
       </c>
       <c r="G787">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H787">
         <v>46</v>
@@ -31528,7 +31528,7 @@
         <v>16</v>
       </c>
       <c r="G788">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H788">
         <v>45</v>
@@ -31560,7 +31560,7 @@
         <v>19</v>
       </c>
       <c r="G789">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H789">
         <v>82</v>
@@ -31592,7 +31592,7 @@
         <v>22</v>
       </c>
       <c r="G790">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H790">
         <v>77</v>
@@ -31624,7 +31624,7 @@
         <v>25</v>
       </c>
       <c r="G791">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H791">
         <v>63</v>
@@ -31656,7 +31656,7 @@
         <v>11</v>
       </c>
       <c r="G792">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H792">
         <v>72</v>
@@ -31688,7 +31688,7 @@
         <v>16</v>
       </c>
       <c r="G793">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H793">
         <v>79</v>
@@ -31720,7 +31720,7 @@
         <v>19</v>
       </c>
       <c r="G794">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H794">
         <v>39</v>
@@ -31752,7 +31752,7 @@
         <v>22</v>
       </c>
       <c r="G795">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H795">
         <v>86</v>
@@ -31784,7 +31784,7 @@
         <v>25</v>
       </c>
       <c r="G796">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H796">
         <v>46</v>
@@ -31816,7 +31816,7 @@
         <v>11</v>
       </c>
       <c r="G797">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H797">
         <v>40</v>
@@ -31848,7 +31848,7 @@
         <v>16</v>
       </c>
       <c r="G798">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H798">
         <v>58</v>
@@ -31880,7 +31880,7 @@
         <v>19</v>
       </c>
       <c r="G799">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H799">
         <v>33</v>
@@ -31912,7 +31912,7 @@
         <v>22</v>
       </c>
       <c r="G800">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H800">
         <v>49</v>
@@ -31944,7 +31944,7 @@
         <v>25</v>
       </c>
       <c r="G801">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H801">
         <v>64</v>
@@ -31976,7 +31976,7 @@
         <v>11</v>
       </c>
       <c r="G802">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H802">
         <v>79</v>
@@ -32008,7 +32008,7 @@
         <v>16</v>
       </c>
       <c r="G803">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H803">
         <v>77</v>
@@ -32040,7 +32040,7 @@
         <v>19</v>
       </c>
       <c r="G804">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H804">
         <v>100</v>
@@ -32072,7 +32072,7 @@
         <v>22</v>
       </c>
       <c r="G805">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H805">
         <v>77</v>
@@ -32104,7 +32104,7 @@
         <v>25</v>
       </c>
       <c r="G806">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H806">
         <v>27</v>
@@ -32136,7 +32136,7 @@
         <v>11</v>
       </c>
       <c r="G807">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H807">
         <v>70</v>
@@ -32168,7 +32168,7 @@
         <v>16</v>
       </c>
       <c r="G808">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H808">
         <v>49</v>
@@ -32200,7 +32200,7 @@
         <v>19</v>
       </c>
       <c r="G809">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H809">
         <v>27</v>
@@ -32232,7 +32232,7 @@
         <v>22</v>
       </c>
       <c r="G810">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H810">
         <v>26</v>
@@ -32264,7 +32264,7 @@
         <v>25</v>
       </c>
       <c r="G811">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H811">
         <v>76</v>
@@ -32296,7 +32296,7 @@
         <v>11</v>
       </c>
       <c r="G812">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H812">
         <v>81</v>
@@ -32328,7 +32328,7 @@
         <v>16</v>
       </c>
       <c r="G813">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H813">
         <v>57</v>
@@ -32360,7 +32360,7 @@
         <v>19</v>
       </c>
       <c r="G814">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H814">
         <v>45</v>
@@ -32392,7 +32392,7 @@
         <v>22</v>
       </c>
       <c r="G815">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H815">
         <v>55</v>
@@ -32424,7 +32424,7 @@
         <v>25</v>
       </c>
       <c r="G816">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H816">
         <v>49</v>
@@ -32456,7 +32456,7 @@
         <v>11</v>
       </c>
       <c r="G817">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H817">
         <v>54</v>
@@ -32488,7 +32488,7 @@
         <v>16</v>
       </c>
       <c r="G818">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H818">
         <v>30</v>
@@ -32520,7 +32520,7 @@
         <v>19</v>
       </c>
       <c r="G819">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H819">
         <v>100</v>
@@ -32552,7 +32552,7 @@
         <v>22</v>
       </c>
       <c r="G820">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H820">
         <v>34</v>
@@ -32584,7 +32584,7 @@
         <v>25</v>
       </c>
       <c r="G821">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H821">
         <v>80</v>
@@ -32616,7 +32616,7 @@
         <v>11</v>
       </c>
       <c r="G822">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H822">
         <v>76</v>
@@ -32648,7 +32648,7 @@
         <v>16</v>
       </c>
       <c r="G823">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H823">
         <v>72</v>
@@ -32680,7 +32680,7 @@
         <v>19</v>
       </c>
       <c r="G824">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H824">
         <v>68</v>
@@ -32712,7 +32712,7 @@
         <v>22</v>
       </c>
       <c r="G825">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H825">
         <v>100</v>
@@ -32744,7 +32744,7 @@
         <v>25</v>
       </c>
       <c r="G826">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H826">
         <v>44</v>
@@ -32776,7 +32776,7 @@
         <v>11</v>
       </c>
       <c r="G827">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H827">
         <v>34</v>
@@ -32808,7 +32808,7 @@
         <v>16</v>
       </c>
       <c r="G828">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H828">
         <v>99</v>
@@ -32840,7 +32840,7 @@
         <v>19</v>
       </c>
       <c r="G829">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H829">
         <v>47</v>
@@ -32872,7 +32872,7 @@
         <v>22</v>
       </c>
       <c r="G830">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H830">
         <v>38</v>
@@ -32904,7 +32904,7 @@
         <v>25</v>
       </c>
       <c r="G831">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H831">
         <v>32</v>
@@ -32936,7 +32936,7 @@
         <v>11</v>
       </c>
       <c r="G832">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H832">
         <v>82</v>
@@ -32968,7 +32968,7 @@
         <v>16</v>
       </c>
       <c r="G833">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H833">
         <v>44</v>
@@ -33000,7 +33000,7 @@
         <v>19</v>
       </c>
       <c r="G834">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H834">
         <v>90</v>
@@ -33032,7 +33032,7 @@
         <v>22</v>
       </c>
       <c r="G835">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H835">
         <v>66</v>
@@ -33064,7 +33064,7 @@
         <v>25</v>
       </c>
       <c r="G836">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H836">
         <v>79</v>
@@ -33096,7 +33096,7 @@
         <v>11</v>
       </c>
       <c r="G837">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H837">
         <v>50</v>
@@ -33128,7 +33128,7 @@
         <v>16</v>
       </c>
       <c r="G838">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H838">
         <v>71</v>
@@ -33160,7 +33160,7 @@
         <v>19</v>
       </c>
       <c r="G839">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H839">
         <v>29</v>
@@ -33192,7 +33192,7 @@
         <v>22</v>
       </c>
       <c r="G840">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H840">
         <v>92</v>
@@ -33224,7 +33224,7 @@
         <v>25</v>
       </c>
       <c r="G841">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H841">
         <v>76</v>
@@ -33256,7 +33256,7 @@
         <v>11</v>
       </c>
       <c r="G842">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H842">
         <v>40</v>
@@ -33288,7 +33288,7 @@
         <v>16</v>
       </c>
       <c r="G843">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H843">
         <v>49</v>
@@ -33320,7 +33320,7 @@
         <v>19</v>
       </c>
       <c r="G844">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H844">
         <v>58</v>
@@ -33352,7 +33352,7 @@
         <v>22</v>
       </c>
       <c r="G845">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H845">
         <v>59</v>
@@ -33384,7 +33384,7 @@
         <v>25</v>
       </c>
       <c r="G846">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H846">
         <v>69</v>
@@ -33416,7 +33416,7 @@
         <v>11</v>
       </c>
       <c r="G847">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H847">
         <v>85</v>
@@ -33448,7 +33448,7 @@
         <v>16</v>
       </c>
       <c r="G848">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H848">
         <v>35</v>
@@ -33480,7 +33480,7 @@
         <v>19</v>
       </c>
       <c r="G849">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H849">
         <v>75</v>
@@ -33512,7 +33512,7 @@
         <v>22</v>
       </c>
       <c r="G850">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H850">
         <v>75</v>
@@ -33544,7 +33544,7 @@
         <v>25</v>
       </c>
       <c r="G851">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H851">
         <v>71</v>
@@ -33576,7 +33576,7 @@
         <v>11</v>
       </c>
       <c r="G852">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H852">
         <v>57</v>
@@ -33608,7 +33608,7 @@
         <v>16</v>
       </c>
       <c r="G853">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H853">
         <v>79</v>
@@ -33640,7 +33640,7 @@
         <v>19</v>
       </c>
       <c r="G854">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H854">
         <v>56</v>
@@ -33672,7 +33672,7 @@
         <v>22</v>
       </c>
       <c r="G855">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H855">
         <v>31</v>
@@ -33704,7 +33704,7 @@
         <v>25</v>
       </c>
       <c r="G856">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H856">
         <v>68</v>
@@ -33736,7 +33736,7 @@
         <v>11</v>
       </c>
       <c r="G857">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H857">
         <v>78</v>
@@ -33768,7 +33768,7 @@
         <v>16</v>
       </c>
       <c r="G858">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H858">
         <v>48</v>
@@ -33800,7 +33800,7 @@
         <v>19</v>
       </c>
       <c r="G859">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H859">
         <v>72</v>
@@ -33832,7 +33832,7 @@
         <v>22</v>
       </c>
       <c r="G860">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H860">
         <v>43</v>
@@ -33864,7 +33864,7 @@
         <v>25</v>
       </c>
       <c r="G861">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H861">
         <v>22</v>
@@ -33896,7 +33896,7 @@
         <v>11</v>
       </c>
       <c r="G862">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H862">
         <v>83</v>
@@ -33928,7 +33928,7 @@
         <v>16</v>
       </c>
       <c r="G863">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H863">
         <v>63</v>
@@ -33960,7 +33960,7 @@
         <v>19</v>
       </c>
       <c r="G864">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H864">
         <v>71</v>
@@ -33992,7 +33992,7 @@
         <v>22</v>
       </c>
       <c r="G865">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H865">
         <v>56</v>
@@ -34024,7 +34024,7 @@
         <v>25</v>
       </c>
       <c r="G866">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H866">
         <v>33</v>
@@ -34056,7 +34056,7 @@
         <v>11</v>
       </c>
       <c r="G867">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H867">
         <v>19</v>
@@ -34088,7 +34088,7 @@
         <v>16</v>
       </c>
       <c r="G868">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H868">
         <v>67</v>
@@ -34120,7 +34120,7 @@
         <v>19</v>
       </c>
       <c r="G869">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H869">
         <v>49</v>
@@ -34152,7 +34152,7 @@
         <v>22</v>
       </c>
       <c r="G870">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H870">
         <v>30</v>
@@ -34184,7 +34184,7 @@
         <v>25</v>
       </c>
       <c r="G871">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H871">
         <v>58</v>
@@ -34216,7 +34216,7 @@
         <v>11</v>
       </c>
       <c r="G872">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H872">
         <v>37</v>
@@ -34248,7 +34248,7 @@
         <v>16</v>
       </c>
       <c r="G873">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H873">
         <v>67</v>
@@ -34280,7 +34280,7 @@
         <v>19</v>
       </c>
       <c r="G874">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H874">
         <v>78</v>
@@ -34312,7 +34312,7 @@
         <v>22</v>
       </c>
       <c r="G875">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H875">
         <v>56</v>
@@ -34344,7 +34344,7 @@
         <v>25</v>
       </c>
       <c r="G876">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H876">
         <v>79</v>
@@ -34376,7 +34376,7 @@
         <v>11</v>
       </c>
       <c r="G877">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H877">
         <v>42</v>
@@ -34408,7 +34408,7 @@
         <v>16</v>
       </c>
       <c r="G878">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H878">
         <v>48</v>
@@ -34440,7 +34440,7 @@
         <v>19</v>
       </c>
       <c r="G879">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H879">
         <v>53</v>
@@ -34472,7 +34472,7 @@
         <v>22</v>
       </c>
       <c r="G880">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H880">
         <v>37</v>
@@ -34504,7 +34504,7 @@
         <v>25</v>
       </c>
       <c r="G881">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H881">
         <v>60</v>
@@ -34536,7 +34536,7 @@
         <v>11</v>
       </c>
       <c r="G882">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H882">
         <v>100</v>
@@ -34568,7 +34568,7 @@
         <v>16</v>
       </c>
       <c r="G883">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H883">
         <v>66</v>
@@ -34600,7 +34600,7 @@
         <v>19</v>
       </c>
       <c r="G884">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H884">
         <v>60</v>
@@ -34632,7 +34632,7 @@
         <v>22</v>
       </c>
       <c r="G885">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H885">
         <v>77</v>
@@ -34664,7 +34664,7 @@
         <v>25</v>
       </c>
       <c r="G886">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H886">
         <v>97</v>
@@ -34696,7 +34696,7 @@
         <v>11</v>
       </c>
       <c r="G887">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H887">
         <v>10</v>
@@ -34728,7 +34728,7 @@
         <v>16</v>
       </c>
       <c r="G888">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H888">
         <v>38</v>
@@ -34760,7 +34760,7 @@
         <v>19</v>
       </c>
       <c r="G889">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H889">
         <v>57</v>
@@ -34792,7 +34792,7 @@
         <v>22</v>
       </c>
       <c r="G890">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H890">
         <v>91</v>
@@ -34824,7 +34824,7 @@
         <v>25</v>
       </c>
       <c r="G891">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H891">
         <v>33</v>
@@ -34856,7 +34856,7 @@
         <v>11</v>
       </c>
       <c r="G892">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H892">
         <v>39</v>
@@ -34888,7 +34888,7 @@
         <v>16</v>
       </c>
       <c r="G893">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H893">
         <v>88</v>
@@ -34920,7 +34920,7 @@
         <v>19</v>
       </c>
       <c r="G894">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H894">
         <v>95</v>
@@ -34952,7 +34952,7 @@
         <v>22</v>
       </c>
       <c r="G895">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H895">
         <v>67</v>
@@ -34984,7 +34984,7 @@
         <v>25</v>
       </c>
       <c r="G896">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H896">
         <v>59</v>
@@ -35016,7 +35016,7 @@
         <v>11</v>
       </c>
       <c r="G897">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H897">
         <v>26</v>
@@ -35048,7 +35048,7 @@
         <v>16</v>
       </c>
       <c r="G898">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H898">
         <v>69</v>
@@ -35080,7 +35080,7 @@
         <v>19</v>
       </c>
       <c r="G899">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H899">
         <v>70</v>
@@ -35112,7 +35112,7 @@
         <v>22</v>
       </c>
       <c r="G900">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H900">
         <v>72</v>
@@ -35144,7 +35144,7 @@
         <v>25</v>
       </c>
       <c r="G901">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H901">
         <v>66</v>
@@ -35176,7 +35176,7 @@
         <v>11</v>
       </c>
       <c r="G902">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H902">
         <v>32</v>
@@ -35208,7 +35208,7 @@
         <v>16</v>
       </c>
       <c r="G903">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H903">
         <v>68</v>
@@ -35240,7 +35240,7 @@
         <v>19</v>
       </c>
       <c r="G904">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H904">
         <v>86</v>
@@ -35272,7 +35272,7 @@
         <v>22</v>
       </c>
       <c r="G905">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H905">
         <v>81</v>
@@ -35304,7 +35304,7 @@
         <v>25</v>
       </c>
       <c r="G906">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H906">
         <v>48</v>
@@ -35336,7 +35336,7 @@
         <v>11</v>
       </c>
       <c r="G907">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H907">
         <v>54</v>
@@ -35368,7 +35368,7 @@
         <v>16</v>
       </c>
       <c r="G908">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H908">
         <v>51</v>
@@ -35400,7 +35400,7 @@
         <v>19</v>
       </c>
       <c r="G909">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H909">
         <v>48</v>
@@ -35432,7 +35432,7 @@
         <v>22</v>
       </c>
       <c r="G910">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H910">
         <v>98</v>
@@ -35464,7 +35464,7 @@
         <v>25</v>
       </c>
       <c r="G911">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H911">
         <v>64</v>
@@ -35496,7 +35496,7 @@
         <v>11</v>
       </c>
       <c r="G912">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H912">
         <v>67</v>
@@ -35528,7 +35528,7 @@
         <v>16</v>
       </c>
       <c r="G913">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H913">
         <v>5</v>
@@ -35560,7 +35560,7 @@
         <v>19</v>
       </c>
       <c r="G914">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H914">
         <v>17</v>
@@ -35592,7 +35592,7 @@
         <v>22</v>
       </c>
       <c r="G915">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H915">
         <v>100</v>
@@ -35624,7 +35624,7 @@
         <v>25</v>
       </c>
       <c r="G916">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H916">
         <v>79</v>
@@ -35656,7 +35656,7 @@
         <v>11</v>
       </c>
       <c r="G917">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H917">
         <v>43</v>
@@ -35688,7 +35688,7 @@
         <v>16</v>
       </c>
       <c r="G918">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H918">
         <v>38</v>
@@ -35720,7 +35720,7 @@
         <v>19</v>
       </c>
       <c r="G919">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H919">
         <v>44</v>
@@ -35752,7 +35752,7 @@
         <v>22</v>
       </c>
       <c r="G920">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H920">
         <v>14</v>
@@ -35784,7 +35784,7 @@
         <v>25</v>
       </c>
       <c r="G921">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H921">
         <v>27</v>
@@ -35816,7 +35816,7 @@
         <v>11</v>
       </c>
       <c r="G922">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H922">
         <v>49</v>
@@ -35848,7 +35848,7 @@
         <v>16</v>
       </c>
       <c r="G923">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H923">
         <v>77</v>
@@ -35880,7 +35880,7 @@
         <v>19</v>
       </c>
       <c r="G924">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H924">
         <v>78</v>
@@ -35912,7 +35912,7 @@
         <v>22</v>
       </c>
       <c r="G925">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H925">
         <v>49</v>
@@ -35944,7 +35944,7 @@
         <v>25</v>
       </c>
       <c r="G926">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H926">
         <v>55</v>
@@ -35976,7 +35976,7 @@
         <v>11</v>
       </c>
       <c r="G927">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H927">
         <v>65</v>
@@ -36008,7 +36008,7 @@
         <v>16</v>
       </c>
       <c r="G928">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H928">
         <v>53</v>
@@ -36040,7 +36040,7 @@
         <v>19</v>
       </c>
       <c r="G929">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H929">
         <v>45</v>
@@ -36072,7 +36072,7 @@
         <v>22</v>
       </c>
       <c r="G930">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H930">
         <v>57</v>
@@ -36104,7 +36104,7 @@
         <v>25</v>
       </c>
       <c r="G931">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H931">
         <v>88</v>
@@ -36136,7 +36136,7 @@
         <v>11</v>
       </c>
       <c r="G932">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H932">
         <v>79</v>
@@ -36168,7 +36168,7 @@
         <v>16</v>
       </c>
       <c r="G933">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H933">
         <v>21</v>
@@ -36200,7 +36200,7 @@
         <v>19</v>
       </c>
       <c r="G934">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H934">
         <v>75</v>
@@ -36232,7 +36232,7 @@
         <v>22</v>
       </c>
       <c r="G935">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H935">
         <v>47</v>
@@ -36264,7 +36264,7 @@
         <v>25</v>
       </c>
       <c r="G936">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H936">
         <v>54</v>
@@ -36296,7 +36296,7 @@
         <v>11</v>
       </c>
       <c r="G937">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H937">
         <v>20</v>
@@ -36328,7 +36328,7 @@
         <v>16</v>
       </c>
       <c r="G938">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H938">
         <v>64</v>
@@ -36360,7 +36360,7 @@
         <v>19</v>
       </c>
       <c r="G939">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H939">
         <v>57</v>
@@ -36392,7 +36392,7 @@
         <v>22</v>
       </c>
       <c r="G940">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H940">
         <v>69</v>
@@ -36424,7 +36424,7 @@
         <v>25</v>
       </c>
       <c r="G941">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H941">
         <v>56</v>
@@ -36456,7 +36456,7 @@
         <v>11</v>
       </c>
       <c r="G942">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H942">
         <v>75</v>
@@ -36488,7 +36488,7 @@
         <v>16</v>
       </c>
       <c r="G943">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H943">
         <v>63</v>
@@ -36520,7 +36520,7 @@
         <v>19</v>
       </c>
       <c r="G944">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H944">
         <v>44</v>
@@ -36552,7 +36552,7 @@
         <v>22</v>
       </c>
       <c r="G945">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H945">
         <v>59</v>
@@ -36584,7 +36584,7 @@
         <v>25</v>
       </c>
       <c r="G946">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H946">
         <v>59</v>
@@ -36616,7 +36616,7 @@
         <v>11</v>
       </c>
       <c r="G947">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H947">
         <v>26</v>
@@ -36648,7 +36648,7 @@
         <v>16</v>
       </c>
       <c r="G948">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H948">
         <v>86</v>
@@ -36680,7 +36680,7 @@
         <v>19</v>
       </c>
       <c r="G949">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H949">
         <v>39</v>
@@ -36712,7 +36712,7 @@
         <v>22</v>
       </c>
       <c r="G950">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H950">
         <v>82</v>
@@ -36744,7 +36744,7 @@
         <v>25</v>
       </c>
       <c r="G951">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H951">
         <v>48</v>
@@ -36776,7 +36776,7 @@
         <v>11</v>
       </c>
       <c r="G952">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H952">
         <v>82</v>
@@ -36808,7 +36808,7 @@
         <v>16</v>
       </c>
       <c r="G953">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H953">
         <v>63</v>
@@ -36840,7 +36840,7 @@
         <v>19</v>
       </c>
       <c r="G954">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H954">
         <v>42</v>
@@ -36872,7 +36872,7 @@
         <v>22</v>
       </c>
       <c r="G955">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H955">
         <v>60</v>
@@ -36904,7 +36904,7 @@
         <v>25</v>
       </c>
       <c r="G956">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H956">
         <v>85</v>
@@ -36936,7 +36936,7 @@
         <v>11</v>
       </c>
       <c r="G957">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H957">
         <v>61</v>
@@ -36968,7 +36968,7 @@
         <v>16</v>
       </c>
       <c r="G958">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H958">
         <v>48</v>
@@ -37000,7 +37000,7 @@
         <v>19</v>
       </c>
       <c r="G959">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H959">
         <v>54</v>
@@ -37032,7 +37032,7 @@
         <v>22</v>
       </c>
       <c r="G960">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H960">
         <v>73</v>
@@ -37064,7 +37064,7 @@
         <v>25</v>
       </c>
       <c r="G961">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H961">
         <v>71</v>
@@ -37096,7 +37096,7 @@
         <v>11</v>
       </c>
       <c r="G962">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H962">
         <v>83</v>
@@ -37128,7 +37128,7 @@
         <v>16</v>
       </c>
       <c r="G963">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H963">
         <v>40</v>
@@ -37160,7 +37160,7 @@
         <v>19</v>
       </c>
       <c r="G964">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H964">
         <v>19</v>
@@ -37192,7 +37192,7 @@
         <v>22</v>
       </c>
       <c r="G965">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H965">
         <v>29</v>
@@ -37224,7 +37224,7 @@
         <v>25</v>
       </c>
       <c r="G966">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H966">
         <v>62</v>
@@ -37256,7 +37256,7 @@
         <v>11</v>
       </c>
       <c r="G967">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H967">
         <v>72</v>
@@ -37288,7 +37288,7 @@
         <v>16</v>
       </c>
       <c r="G968">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H968">
         <v>50</v>
@@ -37320,7 +37320,7 @@
         <v>19</v>
       </c>
       <c r="G969">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H969">
         <v>88</v>
@@ -37352,7 +37352,7 @@
         <v>22</v>
       </c>
       <c r="G970">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H970">
         <v>51</v>
@@ -37384,7 +37384,7 @@
         <v>25</v>
       </c>
       <c r="G971">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H971">
         <v>100</v>
@@ -37416,7 +37416,7 @@
         <v>11</v>
       </c>
       <c r="G972">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H972">
         <v>76</v>
@@ -37448,7 +37448,7 @@
         <v>16</v>
       </c>
       <c r="G973">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H973">
         <v>75</v>
@@ -37480,7 +37480,7 @@
         <v>19</v>
       </c>
       <c r="G974">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H974">
         <v>49</v>
@@ -37512,7 +37512,7 @@
         <v>22</v>
       </c>
       <c r="G975">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H975">
         <v>71</v>
@@ -37544,7 +37544,7 @@
         <v>25</v>
       </c>
       <c r="G976">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H976">
         <v>56</v>
@@ -37576,7 +37576,7 @@
         <v>11</v>
       </c>
       <c r="G977">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H977">
         <v>26</v>
@@ -37608,7 +37608,7 @@
         <v>16</v>
       </c>
       <c r="G978">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H978">
         <v>30</v>
@@ -37640,7 +37640,7 @@
         <v>19</v>
       </c>
       <c r="G979">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H979">
         <v>67</v>
@@ -37672,7 +37672,7 @@
         <v>22</v>
       </c>
       <c r="G980">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H980">
         <v>84</v>
@@ -37704,7 +37704,7 @@
         <v>25</v>
       </c>
       <c r="G981">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H981">
         <v>40</v>
@@ -37736,7 +37736,7 @@
         <v>11</v>
       </c>
       <c r="G982">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H982">
         <v>57</v>
@@ -37768,7 +37768,7 @@
         <v>16</v>
       </c>
       <c r="G983">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H983">
         <v>65</v>
@@ -37800,7 +37800,7 @@
         <v>19</v>
       </c>
       <c r="G984">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H984">
         <v>79</v>
@@ -37832,7 +37832,7 @@
         <v>22</v>
       </c>
       <c r="G985">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H985">
         <v>56</v>
@@ -37864,7 +37864,7 @@
         <v>25</v>
       </c>
       <c r="G986">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H986">
         <v>36</v>
@@ -37896,7 +37896,7 @@
         <v>11</v>
       </c>
       <c r="G987">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H987">
         <v>46</v>
@@ -37928,7 +37928,7 @@
         <v>16</v>
       </c>
       <c r="G988">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H988">
         <v>73</v>
@@ -37960,7 +37960,7 @@
         <v>19</v>
       </c>
       <c r="G989">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H989">
         <v>87</v>
@@ -37992,7 +37992,7 @@
         <v>22</v>
       </c>
       <c r="G990">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H990">
         <v>92</v>
@@ -38024,7 +38024,7 @@
         <v>25</v>
       </c>
       <c r="G991">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H991">
         <v>51</v>
@@ -38056,7 +38056,7 @@
         <v>11</v>
       </c>
       <c r="G992">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H992">
         <v>55</v>
@@ -38088,7 +38088,7 @@
         <v>16</v>
       </c>
       <c r="G993">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H993">
         <v>51</v>
@@ -38120,7 +38120,7 @@
         <v>19</v>
       </c>
       <c r="G994">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H994">
         <v>74</v>
@@ -38152,7 +38152,7 @@
         <v>22</v>
       </c>
       <c r="G995">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H995">
         <v>64</v>
@@ -38184,7 +38184,7 @@
         <v>25</v>
       </c>
       <c r="G996">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H996">
         <v>52</v>
@@ -38216,7 +38216,7 @@
         <v>11</v>
       </c>
       <c r="G997">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H997">
         <v>97</v>
@@ -38248,7 +38248,7 @@
         <v>16</v>
       </c>
       <c r="G998">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H998">
         <v>39</v>
@@ -38280,7 +38280,7 @@
         <v>19</v>
       </c>
       <c r="G999">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H999">
         <v>74</v>
@@ -38312,7 +38312,7 @@
         <v>22</v>
       </c>
       <c r="G1000">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H1000">
         <v>73</v>
@@ -38344,7 +38344,7 @@
         <v>25</v>
       </c>
       <c r="G1001">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H1001">
         <v>64</v>
@@ -38376,7 +38376,7 @@
         <v>19</v>
       </c>
       <c r="G1002">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H1002">
         <v>55</v>
